--- a/Squads/E0/Aston Villa_Liverpool_squad.xlsx
+++ b/Squads/E0/Aston Villa_Liverpool_squad.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="273">
   <si>
     <t>Rk</t>
   </si>
@@ -90,661 +90,664 @@
     <t>Aer%</t>
   </si>
   <si>
-    <t>1421</t>
-  </si>
-  <si>
-    <t>761</t>
-  </si>
-  <si>
-    <t>1783</t>
-  </si>
-  <si>
-    <t>445</t>
-  </si>
-  <si>
-    <t>1198</t>
-  </si>
-  <si>
-    <t>1573</t>
-  </si>
-  <si>
-    <t>2612</t>
-  </si>
-  <si>
-    <t>1436</t>
-  </si>
-  <si>
-    <t>664</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>726</t>
-  </si>
-  <si>
-    <t>1266</t>
-  </si>
-  <si>
-    <t>919</t>
-  </si>
-  <si>
-    <t>1261</t>
-  </si>
-  <si>
-    <t>431</t>
-  </si>
-  <si>
-    <t>1518</t>
-  </si>
-  <si>
-    <t>2547</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>656</t>
-  </si>
-  <si>
-    <t>1154</t>
+    <t>1433</t>
+  </si>
+  <si>
+    <t>768</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>1589</t>
+  </si>
+  <si>
+    <t>1207</t>
+  </si>
+  <si>
+    <t>2637</t>
+  </si>
+  <si>
+    <t>1449</t>
+  </si>
+  <si>
+    <t>671</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>733</t>
+  </si>
+  <si>
+    <t>1276</t>
+  </si>
+  <si>
+    <t>926</t>
+  </si>
+  <si>
+    <t>1270</t>
+  </si>
+  <si>
+    <t>435</t>
+  </si>
+  <si>
+    <t>1533</t>
+  </si>
+  <si>
+    <t>2572</t>
+  </si>
+  <si>
+    <t>2123</t>
+  </si>
+  <si>
+    <t>2430</t>
+  </si>
+  <si>
+    <t>663</t>
   </si>
   <si>
     <t>1163</t>
   </si>
   <si>
-    <t>2483</t>
-  </si>
-  <si>
-    <t>1359</t>
-  </si>
-  <si>
-    <t>1667</t>
-  </si>
-  <si>
-    <t>2030</t>
-  </si>
-  <si>
-    <t>339</t>
-  </si>
-  <si>
-    <t>1537</t>
-  </si>
-  <si>
-    <t>2084</t>
-  </si>
-  <si>
-    <t>2148</t>
-  </si>
-  <si>
-    <t>476</t>
-  </si>
-  <si>
-    <t>638</t>
-  </si>
-  <si>
-    <t>2429</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>588</t>
-  </si>
-  <si>
-    <t>750</t>
-  </si>
-  <si>
-    <t>854</t>
+    <t>1172</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>1371</t>
+  </si>
+  <si>
+    <t>1683</t>
+  </si>
+  <si>
+    <t>2051</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>757</t>
+  </si>
+  <si>
+    <t>1553</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2170</t>
+  </si>
+  <si>
+    <t>481</t>
+  </si>
+  <si>
+    <t>645</t>
+  </si>
+  <si>
+    <t>2453</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>594</t>
+  </si>
+  <si>
+    <t>861</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
+    <t>2381</t>
+  </si>
+  <si>
+    <t>562</t>
+  </si>
+  <si>
+    <t>634</t>
+  </si>
+  <si>
+    <t>1117</t>
+  </si>
+  <si>
+    <t>1240</t>
+  </si>
+  <si>
+    <t>1244</t>
+  </si>
+  <si>
+    <t>1644</t>
+  </si>
+  <si>
+    <t>1842</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>688</t>
+  </si>
+  <si>
+    <t>945</t>
+  </si>
+  <si>
+    <t>959</t>
+  </si>
+  <si>
+    <t>1237</t>
+  </si>
+  <si>
+    <t>1588</t>
+  </si>
+  <si>
+    <t>2479</t>
+  </si>
+  <si>
+    <t>Douglas Luiz</t>
+  </si>
+  <si>
+    <t>Wataru Endo</t>
+  </si>
+  <si>
+    <t>Darwin Núñez</t>
+  </si>
+  <si>
+    <t>Matty Cash</t>
+  </si>
+  <si>
+    <t>John McGinn</t>
+  </si>
+  <si>
+    <t>Boubacar Kamara</t>
+  </si>
+  <si>
+    <t>Nicolò Zaniolo</t>
+  </si>
+  <si>
+    <t>Alexis Mac Allister</t>
+  </si>
+  <si>
+    <t>Lucas Digne</t>
+  </si>
+  <si>
+    <t>Trent Alexander-Arnold</t>
+  </si>
+  <si>
+    <t>Leon Bailey</t>
+  </si>
+  <si>
+    <t>Jhon Durán</t>
+  </si>
+  <si>
+    <t>Ezri Konsa</t>
+  </si>
+  <si>
+    <t>Joe Gomez</t>
+  </si>
+  <si>
+    <t>Ibrahima Konaté</t>
+  </si>
+  <si>
+    <t>Diego Carlos</t>
+  </si>
+  <si>
+    <t>Emiliano Martínez</t>
+  </si>
+  <si>
+    <t>Ollie Watkins</t>
+  </si>
+  <si>
+    <t>Morgan Rogers</t>
+  </si>
+  <si>
+    <t>Youri Tielemans</t>
+  </si>
+  <si>
+    <t>Luis Díaz</t>
+  </si>
+  <si>
+    <t>Curtis Jones</t>
+  </si>
+  <si>
+    <t>Diogo Jota</t>
+  </si>
+  <si>
+    <t>Virgil van Dijk</t>
+  </si>
+  <si>
+    <t>Clément Lenglet</t>
+  </si>
+  <si>
+    <t>Álex Moreno</t>
+  </si>
+  <si>
+    <t>Jacob Ramsey</t>
+  </si>
+  <si>
+    <t>Conor Bradley</t>
+  </si>
+  <si>
+    <t>Harvey Elliott</t>
+  </si>
+  <si>
+    <t>Joël Matip</t>
+  </si>
+  <si>
+    <t>Andrew Robertson</t>
+  </si>
+  <si>
+    <t>Mohamed Salah</t>
+  </si>
+  <si>
+    <t>Calum Chambers</t>
+  </si>
+  <si>
+    <t>Moussa Diaby</t>
+  </si>
+  <si>
+    <t>Pau Torres</t>
+  </si>
+  <si>
+    <t>Alisson</t>
+  </si>
+  <si>
+    <t>Jayden Danns</t>
+  </si>
+  <si>
+    <t>Cody Gakpo</t>
+  </si>
+  <si>
+    <t>Jarell Quansah</t>
+  </si>
+  <si>
+    <t>Dominik Szoboszlai</t>
+  </si>
+  <si>
+    <t>Philippe Coutinho</t>
+  </si>
+  <si>
+    <t>Leander Dendoncker</t>
+  </si>
+  <si>
+    <t>Tim Iroegbunam</t>
+  </si>
+  <si>
+    <t>Omari Kellyman</t>
+  </si>
+  <si>
+    <t>Kaine Kesler-Hayden</t>
+  </si>
+  <si>
+    <t>Tyrone Mings</t>
+  </si>
+  <si>
+    <t>Robin Olsen</t>
+  </si>
+  <si>
+    <t>Jaden Philogene Bidace</t>
+  </si>
+  <si>
+    <t>Thiago Alcántara</t>
+  </si>
+  <si>
+    <t>Stefan Bajcetic</t>
+  </si>
+  <si>
+    <t>Owen Beck</t>
+  </si>
+  <si>
+    <t>Bobby Clark</t>
+  </si>
+  <si>
+    <t>Ben Doak</t>
+  </si>
+  <si>
+    <t>Kaide Gordon</t>
+  </si>
+  <si>
+    <t>Ryan Gravenberch</t>
+  </si>
+  <si>
+    <t>Caoimhín Kelleher</t>
+  </si>
+  <si>
+    <t>James McConnell</t>
+  </si>
+  <si>
+    <t>Kostas Tsimikas</t>
+  </si>
+  <si>
+    <t>br BRA</t>
+  </si>
+  <si>
+    <t>jp JPN</t>
+  </si>
+  <si>
+    <t>uy URU</t>
+  </si>
+  <si>
+    <t>pl POL</t>
+  </si>
+  <si>
+    <t>sct SCO</t>
+  </si>
+  <si>
+    <t>fr FRA</t>
+  </si>
+  <si>
+    <t>it ITA</t>
+  </si>
+  <si>
+    <t>ar ARG</t>
+  </si>
+  <si>
+    <t>eng ENG</t>
+  </si>
+  <si>
+    <t>jm JAM</t>
+  </si>
+  <si>
+    <t>co COL</t>
+  </si>
+  <si>
+    <t>be BEL</t>
+  </si>
+  <si>
+    <t>pt POR</t>
+  </si>
+  <si>
+    <t>nl NED</t>
+  </si>
+  <si>
+    <t>es ESP</t>
+  </si>
+  <si>
+    <t>nir NIR</t>
+  </si>
+  <si>
+    <t>cm CMR</t>
+  </si>
+  <si>
+    <t>eg EGY</t>
+  </si>
+  <si>
+    <t>hu HUN</t>
+  </si>
+  <si>
+    <t>se SWE</t>
+  </si>
+  <si>
+    <t>wls WAL</t>
+  </si>
+  <si>
+    <t>ie IRL</t>
+  </si>
+  <si>
+    <t>gr GRE</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>FW</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>MF,FW</t>
+  </si>
+  <si>
+    <t>FW,MF</t>
+  </si>
+  <si>
+    <t>GK</t>
+  </si>
+  <si>
+    <t>MF,DF</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>eng Premier League</t>
+  </si>
+  <si>
+    <t>26-010</t>
+  </si>
+  <si>
+    <t>31-100</t>
+  </si>
+  <si>
+    <t>24-330</t>
+  </si>
+  <si>
+    <t>26-286</t>
+  </si>
+  <si>
+    <t>29-214</t>
+  </si>
+  <si>
+    <t>24-178</t>
+  </si>
+  <si>
+    <t>24-322</t>
+  </si>
+  <si>
+    <t>25-147</t>
+  </si>
+  <si>
+    <t>30-304</t>
+  </si>
+  <si>
+    <t>25-225</t>
+  </si>
+  <si>
+    <t>26-284</t>
+  </si>
+  <si>
+    <t>20-158</t>
+  </si>
+  <si>
+    <t>26-209</t>
+  </si>
+  <si>
+    <t>26-362</t>
+  </si>
+  <si>
+    <t>24-360</t>
+  </si>
+  <si>
+    <t>31-065</t>
+  </si>
+  <si>
+    <t>31-260</t>
+  </si>
+  <si>
+    <t>28-141</t>
+  </si>
+  <si>
+    <t>21-298</t>
+  </si>
+  <si>
+    <t>27-012</t>
+  </si>
+  <si>
+    <t>27-127</t>
+  </si>
+  <si>
+    <t>23-110</t>
+  </si>
+  <si>
+    <t>27-167</t>
+  </si>
+  <si>
+    <t>32-316</t>
+  </si>
+  <si>
+    <t>28-337</t>
+  </si>
+  <si>
+    <t>30-346</t>
+  </si>
+  <si>
+    <t>22-357</t>
+  </si>
+  <si>
+    <t>20-315</t>
+  </si>
+  <si>
+    <t>21-045</t>
+  </si>
+  <si>
+    <t>32-285</t>
+  </si>
+  <si>
+    <t>30-069</t>
+  </si>
+  <si>
+    <t>31-339</t>
+  </si>
+  <si>
+    <t>29-120</t>
+  </si>
+  <si>
+    <t>24-317</t>
+  </si>
+  <si>
+    <t>27-124</t>
+  </si>
+  <si>
+    <t>31-230</t>
+  </si>
+  <si>
+    <t>18-124</t>
+  </si>
+  <si>
+    <t>25-012</t>
+  </si>
+  <si>
+    <t>21-111</t>
+  </si>
+  <si>
+    <t>23-207</t>
+  </si>
+  <si>
+    <t>31-342</t>
+  </si>
+  <si>
+    <t>29-034</t>
+  </si>
+  <si>
+    <t>20-324</t>
+  </si>
+  <si>
+    <t>18-247</t>
+  </si>
+  <si>
+    <t>21-209</t>
+  </si>
+  <si>
+    <t>31-067</t>
+  </si>
+  <si>
+    <t>34-132</t>
+  </si>
+  <si>
+    <t>22-101</t>
+  </si>
+  <si>
+    <t>33-038</t>
+  </si>
+  <si>
+    <t>19-210</t>
+  </si>
+  <si>
+    <t>21-284</t>
+  </si>
+  <si>
+    <t>19-102</t>
+  </si>
+  <si>
+    <t>18-190</t>
+  </si>
+  <si>
+    <t>19-227</t>
+  </si>
+  <si>
+    <t>22-003</t>
+  </si>
+  <si>
+    <t>25-178</t>
+  </si>
+  <si>
+    <t>19-249</t>
+  </si>
+  <si>
+    <t>28-007</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1991</t>
   </si>
   <si>
     <t>2006</t>
-  </si>
-  <si>
-    <t>2357</t>
-  </si>
-  <si>
-    <t>557</t>
-  </si>
-  <si>
-    <t>627</t>
-  </si>
-  <si>
-    <t>1109</t>
-  </si>
-  <si>
-    <t>1231</t>
-  </si>
-  <si>
-    <t>1235</t>
-  </si>
-  <si>
-    <t>1628</t>
-  </si>
-  <si>
-    <t>1824</t>
-  </si>
-  <si>
-    <t>1964</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>506</t>
-  </si>
-  <si>
-    <t>681</t>
-  </si>
-  <si>
-    <t>937</t>
-  </si>
-  <si>
-    <t>951</t>
-  </si>
-  <si>
-    <t>1228</t>
-  </si>
-  <si>
-    <t>1572</t>
-  </si>
-  <si>
-    <t>2455</t>
-  </si>
-  <si>
-    <t>Douglas Luiz</t>
-  </si>
-  <si>
-    <t>Wataru Endo</t>
-  </si>
-  <si>
-    <t>Darwin Núñez</t>
-  </si>
-  <si>
-    <t>Matty Cash</t>
-  </si>
-  <si>
-    <t>Boubacar Kamara</t>
-  </si>
-  <si>
-    <t>John McGinn</t>
-  </si>
-  <si>
-    <t>Nicolò Zaniolo</t>
-  </si>
-  <si>
-    <t>Alexis Mac Allister</t>
-  </si>
-  <si>
-    <t>Lucas Digne</t>
-  </si>
-  <si>
-    <t>Trent Alexander-Arnold</t>
-  </si>
-  <si>
-    <t>Leon Bailey</t>
-  </si>
-  <si>
-    <t>Jhon Durán</t>
-  </si>
-  <si>
-    <t>Ezri Konsa</t>
-  </si>
-  <si>
-    <t>Joe Gomez</t>
-  </si>
-  <si>
-    <t>Ibrahima Konaté</t>
-  </si>
-  <si>
-    <t>Diego Carlos</t>
-  </si>
-  <si>
-    <t>Emiliano Martínez</t>
-  </si>
-  <si>
-    <t>Ollie Watkins</t>
-  </si>
-  <si>
-    <t>Morgan Rogers</t>
-  </si>
-  <si>
-    <t>Youri Tielemans</t>
-  </si>
-  <si>
-    <t>Luis Díaz</t>
-  </si>
-  <si>
-    <t>Curtis Jones</t>
-  </si>
-  <si>
-    <t>Diogo Jota</t>
-  </si>
-  <si>
-    <t>Virgil van Dijk</t>
-  </si>
-  <si>
-    <t>Clément Lenglet</t>
-  </si>
-  <si>
-    <t>Álex Moreno</t>
-  </si>
-  <si>
-    <t>Jacob Ramsey</t>
-  </si>
-  <si>
-    <t>Conor Bradley</t>
-  </si>
-  <si>
-    <t>Joël Matip</t>
-  </si>
-  <si>
-    <t>Andrew Robertson</t>
-  </si>
-  <si>
-    <t>Mohamed Salah</t>
-  </si>
-  <si>
-    <t>Calum Chambers</t>
-  </si>
-  <si>
-    <t>Moussa Diaby</t>
-  </si>
-  <si>
-    <t>Pau Torres</t>
-  </si>
-  <si>
-    <t>Alisson</t>
-  </si>
-  <si>
-    <t>Jayden Danns</t>
-  </si>
-  <si>
-    <t>Harvey Elliott</t>
-  </si>
-  <si>
-    <t>Cody Gakpo</t>
-  </si>
-  <si>
-    <t>Jarell Quansah</t>
-  </si>
-  <si>
-    <t>Dominik Szoboszlai</t>
-  </si>
-  <si>
-    <t>Philippe Coutinho</t>
-  </si>
-  <si>
-    <t>Leander Dendoncker</t>
-  </si>
-  <si>
-    <t>Tim Iroegbunam</t>
-  </si>
-  <si>
-    <t>Omari Kellyman</t>
-  </si>
-  <si>
-    <t>Kaine Kesler-Hayden</t>
-  </si>
-  <si>
-    <t>Tyrone Mings</t>
-  </si>
-  <si>
-    <t>Robin Olsen</t>
-  </si>
-  <si>
-    <t>Jaden Philogene Bidace</t>
-  </si>
-  <si>
-    <t>Thiago Alcántara</t>
-  </si>
-  <si>
-    <t>Stefan Bajcetic</t>
-  </si>
-  <si>
-    <t>Owen Beck</t>
-  </si>
-  <si>
-    <t>Bobby Clark</t>
-  </si>
-  <si>
-    <t>Ben Doak</t>
-  </si>
-  <si>
-    <t>Kaide Gordon</t>
-  </si>
-  <si>
-    <t>Ryan Gravenberch</t>
-  </si>
-  <si>
-    <t>Caoimhín Kelleher</t>
-  </si>
-  <si>
-    <t>James McConnell</t>
-  </si>
-  <si>
-    <t>Kostas Tsimikas</t>
-  </si>
-  <si>
-    <t>br BRA</t>
-  </si>
-  <si>
-    <t>jp JPN</t>
-  </si>
-  <si>
-    <t>uy URU</t>
-  </si>
-  <si>
-    <t>pl POL</t>
-  </si>
-  <si>
-    <t>fr FRA</t>
-  </si>
-  <si>
-    <t>sct SCO</t>
-  </si>
-  <si>
-    <t>it ITA</t>
-  </si>
-  <si>
-    <t>ar ARG</t>
-  </si>
-  <si>
-    <t>eng ENG</t>
-  </si>
-  <si>
-    <t>jm JAM</t>
-  </si>
-  <si>
-    <t>co COL</t>
-  </si>
-  <si>
-    <t>be BEL</t>
-  </si>
-  <si>
-    <t>pt POR</t>
-  </si>
-  <si>
-    <t>nl NED</t>
-  </si>
-  <si>
-    <t>es ESP</t>
-  </si>
-  <si>
-    <t>nir NIR</t>
-  </si>
-  <si>
-    <t>cm CMR</t>
-  </si>
-  <si>
-    <t>eg EGY</t>
-  </si>
-  <si>
-    <t>hu HUN</t>
-  </si>
-  <si>
-    <t>se SWE</t>
-  </si>
-  <si>
-    <t>wls WAL</t>
-  </si>
-  <si>
-    <t>ie IRL</t>
-  </si>
-  <si>
-    <t>gr GRE</t>
-  </si>
-  <si>
-    <t>MF</t>
-  </si>
-  <si>
-    <t>FW</t>
-  </si>
-  <si>
-    <t>DF</t>
-  </si>
-  <si>
-    <t>MF,FW</t>
-  </si>
-  <si>
-    <t>FW,MF</t>
-  </si>
-  <si>
-    <t>GK</t>
-  </si>
-  <si>
-    <t>DF,MF</t>
-  </si>
-  <si>
-    <t>Aston Villa</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>eng Premier League</t>
-  </si>
-  <si>
-    <t>25-364</t>
-  </si>
-  <si>
-    <t>31-088</t>
-  </si>
-  <si>
-    <t>24-318</t>
-  </si>
-  <si>
-    <t>26-274</t>
-  </si>
-  <si>
-    <t>24-166</t>
-  </si>
-  <si>
-    <t>29-202</t>
-  </si>
-  <si>
-    <t>24-310</t>
-  </si>
-  <si>
-    <t>25-135</t>
-  </si>
-  <si>
-    <t>30-292</t>
-  </si>
-  <si>
-    <t>25-213</t>
-  </si>
-  <si>
-    <t>26-272</t>
-  </si>
-  <si>
-    <t>20-146</t>
-  </si>
-  <si>
-    <t>26-197</t>
-  </si>
-  <si>
-    <t>26-350</t>
-  </si>
-  <si>
-    <t>24-348</t>
-  </si>
-  <si>
-    <t>31-053</t>
-  </si>
-  <si>
-    <t>31-248</t>
-  </si>
-  <si>
-    <t>28-129</t>
-  </si>
-  <si>
-    <t>21-286</t>
-  </si>
-  <si>
-    <t>27-000</t>
-  </si>
-  <si>
-    <t>27-115</t>
-  </si>
-  <si>
-    <t>23-098</t>
-  </si>
-  <si>
-    <t>27-155</t>
-  </si>
-  <si>
-    <t>32-304</t>
-  </si>
-  <si>
-    <t>28-325</t>
-  </si>
-  <si>
-    <t>30-334</t>
-  </si>
-  <si>
-    <t>22-345</t>
-  </si>
-  <si>
-    <t>20-303</t>
-  </si>
-  <si>
-    <t>32-273</t>
-  </si>
-  <si>
-    <t>30-057</t>
-  </si>
-  <si>
-    <t>31-327</t>
-  </si>
-  <si>
-    <t>29-108</t>
-  </si>
-  <si>
-    <t>24-305</t>
-  </si>
-  <si>
-    <t>27-112</t>
-  </si>
-  <si>
-    <t>31-218</t>
-  </si>
-  <si>
-    <t>18-112</t>
-  </si>
-  <si>
-    <t>21-033</t>
-  </si>
-  <si>
-    <t>25-000</t>
-  </si>
-  <si>
-    <t>21-099</t>
-  </si>
-  <si>
-    <t>23-195</t>
-  </si>
-  <si>
-    <t>31-330</t>
-  </si>
-  <si>
-    <t>29-022</t>
-  </si>
-  <si>
-    <t>20-312</t>
-  </si>
-  <si>
-    <t>18-235</t>
-  </si>
-  <si>
-    <t>21-197</t>
-  </si>
-  <si>
-    <t>31-055</t>
-  </si>
-  <si>
-    <t>34-120</t>
-  </si>
-  <si>
-    <t>22-089</t>
-  </si>
-  <si>
-    <t>33-026</t>
-  </si>
-  <si>
-    <t>19-198</t>
-  </si>
-  <si>
-    <t>21-272</t>
-  </si>
-  <si>
-    <t>19-090</t>
-  </si>
-  <si>
-    <t>18-178</t>
-  </si>
-  <si>
-    <t>19-215</t>
-  </si>
-  <si>
-    <t>21-357</t>
-  </si>
-  <si>
-    <t>25-166</t>
-  </si>
-  <si>
-    <t>19-237</t>
-  </si>
-  <si>
-    <t>27-361</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1991</t>
   </si>
   <si>
     <t>2000</t>
@@ -962,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>1503.0</v>
+        <v>1515.0</v>
       </c>
       <c r="C2" t="s">
         <v>83</v>
@@ -986,7 +989,7 @@
         <v>232</v>
       </c>
       <c r="J2" t="n">
-        <v>31.4</v>
+        <v>32.3</v>
       </c>
       <c r="K2" t="n">
         <v>11.0</v>
@@ -998,19 +1001,19 @@
         <v>0.0</v>
       </c>
       <c r="N2" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="P2" t="n">
         <v>0.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>110.0</v>
+        <v>112.0</v>
       </c>
       <c r="R2" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="S2" t="n">
         <v>38.0</v>
@@ -1025,16 +1028,16 @@
         <v>0.0</v>
       </c>
       <c r="W2" t="n">
-        <v>176.0</v>
+        <v>179.0</v>
       </c>
       <c r="X2" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="Y2" t="n">
         <v>18.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>57.1</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="3">
@@ -1042,7 +1045,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>806.0</v>
+        <v>813.0</v>
       </c>
       <c r="C3" t="s">
         <v>84</v>
@@ -1066,7 +1069,7 @@
         <v>233</v>
       </c>
       <c r="J3" t="n">
-        <v>17.3</v>
+        <v>18.1</v>
       </c>
       <c r="K3" t="n">
         <v>9.0</v>
@@ -1078,10 +1081,10 @@
         <v>0.0</v>
       </c>
       <c r="N3" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="O3" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="P3" t="n">
         <v>0.0</v>
@@ -1090,10 +1093,10 @@
         <v>4.0</v>
       </c>
       <c r="R3" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="S3" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="T3" t="n">
         <v>0.0</v>
@@ -1105,7 +1108,7 @@
         <v>0.0</v>
       </c>
       <c r="W3" t="n">
-        <v>92.0</v>
+        <v>100.0</v>
       </c>
       <c r="X3" t="n">
         <v>31.0</v>
@@ -1122,7 +1125,7 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>1886.0</v>
+        <v>1904.0</v>
       </c>
       <c r="C4" t="s">
         <v>85</v>
@@ -1146,7 +1149,7 @@
         <v>234</v>
       </c>
       <c r="J4" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="K4" t="n">
         <v>9.0</v>
@@ -1164,10 +1167,10 @@
         <v>15.0</v>
       </c>
       <c r="P4" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="R4" t="n">
         <v>3.0</v>
@@ -1185,7 +1188,7 @@
         <v>0.0</v>
       </c>
       <c r="W4" t="n">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="X4" t="n">
         <v>34.0</v>
@@ -1202,7 +1205,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>473.0</v>
+        <v>478.0</v>
       </c>
       <c r="C5" t="s">
         <v>86</v>
@@ -1282,7 +1285,7 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>1270.0</v>
+        <v>1684.0</v>
       </c>
       <c r="C6" t="s">
         <v>87</v>
@@ -1291,7 +1294,7 @@
         <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F6" t="s">
         <v>171</v>
@@ -1303,13 +1306,13 @@
         <v>178</v>
       </c>
       <c r="I6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J6" t="n">
-        <v>18.4</v>
+        <v>32.4</v>
       </c>
       <c r="K6" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="L6" t="n">
         <v>1.0</v>
@@ -1318,22 +1321,22 @@
         <v>0.0</v>
       </c>
       <c r="N6" t="n">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
       <c r="O6" t="n">
-        <v>29.0</v>
+        <v>67.0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.0</v>
+        <v>73.0</v>
       </c>
       <c r="R6" t="n">
         <v>21.0</v>
       </c>
       <c r="S6" t="n">
-        <v>29.0</v>
+        <v>34.0</v>
       </c>
       <c r="T6" t="n">
         <v>0.0</v>
@@ -1345,16 +1348,16 @@
         <v>0.0</v>
       </c>
       <c r="W6" t="n">
-        <v>97.0</v>
+        <v>159.0</v>
       </c>
       <c r="X6" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>19.0</v>
       </c>
-      <c r="Y6" t="n">
-        <v>25.0</v>
-      </c>
       <c r="Z6" t="n">
-        <v>43.2</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="7">
@@ -1362,7 +1365,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>1668.0</v>
+        <v>1279.0</v>
       </c>
       <c r="C7" t="s">
         <v>88</v>
@@ -1371,7 +1374,7 @@
         <v>146</v>
       </c>
       <c r="E7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F7" t="s">
         <v>171</v>
@@ -1383,10 +1386,10 @@
         <v>179</v>
       </c>
       <c r="I7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J7" t="n">
-        <v>31.4</v>
+        <v>18.4</v>
       </c>
       <c r="K7" t="n">
         <v>7.0</v>
@@ -1398,22 +1401,22 @@
         <v>0.0</v>
       </c>
       <c r="N7" t="n">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
       <c r="O7" t="n">
-        <v>64.0</v>
+        <v>29.0</v>
       </c>
       <c r="P7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>2.0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>70.0</v>
       </c>
       <c r="R7" t="n">
         <v>21.0</v>
       </c>
       <c r="S7" t="n">
-        <v>34.0</v>
+        <v>29.0</v>
       </c>
       <c r="T7" t="n">
         <v>0.0</v>
@@ -1425,16 +1428,16 @@
         <v>0.0</v>
       </c>
       <c r="W7" t="n">
-        <v>152.0</v>
+        <v>97.0</v>
       </c>
       <c r="X7" t="n">
-        <v>9.0</v>
+        <v>19.0</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.0</v>
+        <v>25.0</v>
       </c>
       <c r="Z7" t="n">
-        <v>32.1</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="8">
@@ -1442,7 +1445,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>2755.0</v>
+        <v>2780.0</v>
       </c>
       <c r="C8" t="s">
         <v>89</v>
@@ -1466,7 +1469,7 @@
         <v>234</v>
       </c>
       <c r="J8" t="n">
-        <v>9.2</v>
+        <v>9.3</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -1487,7 +1490,7 @@
         <v>0.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="R8" t="n">
         <v>1.0</v>
@@ -1522,7 +1525,7 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>1519.0</v>
+        <v>1532.0</v>
       </c>
       <c r="C9" t="s">
         <v>90</v>
@@ -1546,7 +1549,7 @@
         <v>232</v>
       </c>
       <c r="J9" t="n">
-        <v>27.1</v>
+        <v>28.1</v>
       </c>
       <c r="K9" t="n">
         <v>7.0</v>
@@ -1558,22 +1561,22 @@
         <v>0.0</v>
       </c>
       <c r="N9" t="n">
-        <v>51.0</v>
+        <v>53.0</v>
       </c>
       <c r="O9" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="P9" t="n">
         <v>0.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="R9" t="n">
         <v>34.0</v>
       </c>
       <c r="S9" t="n">
-        <v>51.0</v>
+        <v>53.0</v>
       </c>
       <c r="T9" t="n">
         <v>0.0</v>
@@ -1585,16 +1588,16 @@
         <v>0.0</v>
       </c>
       <c r="W9" t="n">
-        <v>189.0</v>
+        <v>192.0</v>
       </c>
       <c r="X9" t="n">
         <v>28.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>50.9</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="10">
@@ -1602,13 +1605,13 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>703.0</v>
+        <v>710.0</v>
       </c>
       <c r="C10" t="s">
         <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E10" t="s">
         <v>166</v>
@@ -1626,7 +1629,7 @@
         <v>233</v>
       </c>
       <c r="J10" t="n">
-        <v>24.8</v>
+        <v>25.8</v>
       </c>
       <c r="K10" t="n">
         <v>6.0</v>
@@ -1638,19 +1641,19 @@
         <v>0.0</v>
       </c>
       <c r="N10" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="O10" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="P10" t="n">
         <v>3.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>142.0</v>
+        <v>147.0</v>
       </c>
       <c r="R10" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="S10" t="n">
         <v>18.0</v>
@@ -1665,16 +1668,16 @@
         <v>0.0</v>
       </c>
       <c r="W10" t="n">
-        <v>93.0</v>
+        <v>99.0</v>
       </c>
       <c r="X10" t="n">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>65.0</v>
+        <v>65.1</v>
       </c>
     </row>
     <row r="11">
@@ -1682,7 +1685,7 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>70.0</v>
+        <v>71.0</v>
       </c>
       <c r="C11" t="s">
         <v>92</v>
@@ -1706,7 +1709,7 @@
         <v>232</v>
       </c>
       <c r="J11" t="n">
-        <v>22.2</v>
+        <v>23.2</v>
       </c>
       <c r="K11" t="n">
         <v>6.0</v>
@@ -1724,16 +1727,16 @@
         <v>8.0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>155.0</v>
+        <v>163.0</v>
       </c>
       <c r="R11" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="S11" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="T11" t="n">
         <v>0.0</v>
@@ -1745,16 +1748,16 @@
         <v>0.0</v>
       </c>
       <c r="W11" t="n">
-        <v>162.0</v>
+        <v>168.0</v>
       </c>
       <c r="X11" t="n">
         <v>8.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>61.5</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="12">
@@ -1762,7 +1765,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>181.0</v>
+        <v>184.0</v>
       </c>
       <c r="C12" t="s">
         <v>93</v>
@@ -1786,7 +1789,7 @@
         <v>235</v>
       </c>
       <c r="J12" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="K12" t="n">
         <v>5.0</v>
@@ -1798,13 +1801,13 @@
         <v>0.0</v>
       </c>
       <c r="N12" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="O12" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="P12" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="Q12" t="n">
         <v>75.0</v>
@@ -1813,7 +1816,7 @@
         <v>9.0</v>
       </c>
       <c r="S12" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="T12" t="n">
         <v>0.0</v>
@@ -1825,16 +1828,16 @@
         <v>0.0</v>
       </c>
       <c r="W12" t="n">
-        <v>103.0</v>
+        <v>107.0</v>
       </c>
       <c r="X12" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>36.1</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="13">
@@ -1842,7 +1845,7 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>769.0</v>
+        <v>776.0</v>
       </c>
       <c r="C13" t="s">
         <v>94</v>
@@ -1866,7 +1869,7 @@
         <v>237</v>
       </c>
       <c r="J13" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K13" t="n">
         <v>5.0</v>
@@ -1878,7 +1881,7 @@
         <v>0.0</v>
       </c>
       <c r="N13" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="O13" t="n">
         <v>8.0</v>
@@ -1893,7 +1896,7 @@
         <v>1.0</v>
       </c>
       <c r="S13" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="T13" t="n">
         <v>1.0</v>
@@ -1905,7 +1908,7 @@
         <v>0.0</v>
       </c>
       <c r="W13" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="X13" t="n">
         <v>16.0</v>
@@ -1922,7 +1925,7 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>1342.0</v>
+        <v>1352.0</v>
       </c>
       <c r="C14" t="s">
         <v>95</v>
@@ -1946,7 +1949,7 @@
         <v>235</v>
       </c>
       <c r="J14" t="n">
-        <v>32.1</v>
+        <v>33.1</v>
       </c>
       <c r="K14" t="n">
         <v>5.0</v>
@@ -1961,19 +1964,19 @@
         <v>14.0</v>
       </c>
       <c r="O14" t="n">
-        <v>61.0</v>
+        <v>63.0</v>
       </c>
       <c r="P14" t="n">
         <v>0.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="R14" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.0</v>
+        <v>32.0</v>
       </c>
       <c r="T14" t="n">
         <v>1.0</v>
@@ -1985,16 +1988,16 @@
         <v>0.0</v>
       </c>
       <c r="W14" t="n">
-        <v>138.0</v>
+        <v>140.0</v>
       </c>
       <c r="X14" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="Y14" t="n">
         <v>14.0</v>
       </c>
       <c r="Z14" t="n">
-        <v>65.9</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="15">
@@ -2002,7 +2005,7 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>976.0</v>
+        <v>983.0</v>
       </c>
       <c r="C15" t="s">
         <v>96</v>
@@ -2026,7 +2029,7 @@
         <v>235</v>
       </c>
       <c r="J15" t="n">
-        <v>18.8</v>
+        <v>19.8</v>
       </c>
       <c r="K15" t="n">
         <v>5.0</v>
@@ -2038,22 +2041,22 @@
         <v>0.0</v>
       </c>
       <c r="N15" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="O15" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="P15" t="n">
         <v>0.0</v>
       </c>
       <c r="Q15" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="R15" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="S15" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="T15" t="n">
         <v>0.0</v>
@@ -2065,7 +2068,7 @@
         <v>0.0</v>
       </c>
       <c r="W15" t="n">
-        <v>103.0</v>
+        <v>111.0</v>
       </c>
       <c r="X15" t="n">
         <v>31.0</v>
@@ -2082,13 +2085,13 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>1336.0</v>
+        <v>1345.0</v>
       </c>
       <c r="C16" t="s">
         <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E16" t="s">
         <v>166</v>
@@ -2162,7 +2165,7 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>459.0</v>
+        <v>463.0</v>
       </c>
       <c r="C17" t="s">
         <v>98</v>
@@ -2186,7 +2189,7 @@
         <v>233</v>
       </c>
       <c r="J17" t="n">
-        <v>18.2</v>
+        <v>19.2</v>
       </c>
       <c r="K17" t="n">
         <v>4.0</v>
@@ -2198,7 +2201,7 @@
         <v>0.0</v>
       </c>
       <c r="N17" t="n">
-        <v>22.0</v>
+        <v>26.0</v>
       </c>
       <c r="O17" t="n">
         <v>4.0</v>
@@ -2225,16 +2228,16 @@
         <v>0.0</v>
       </c>
       <c r="W17" t="n">
-        <v>71.0</v>
+        <v>75.0</v>
       </c>
       <c r="X17" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="Y17" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="Z17" t="n">
-        <v>45.5</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="18">
@@ -2242,7 +2245,7 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>1606.0</v>
+        <v>1621.0</v>
       </c>
       <c r="C18" t="s">
         <v>99</v>
@@ -2266,7 +2269,7 @@
         <v>238</v>
       </c>
       <c r="J18" t="n">
-        <v>32.5</v>
+        <v>33.5</v>
       </c>
       <c r="K18" t="n">
         <v>4.0</v>
@@ -2302,10 +2305,10 @@
         <v>0.0</v>
       </c>
       <c r="V18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="W18" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="X18" t="n">
         <v>5.0</v>
@@ -2322,7 +2325,7 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>2687.0</v>
+        <v>2712.0</v>
       </c>
       <c r="C19" t="s">
         <v>100</v>
@@ -2346,7 +2349,7 @@
         <v>239</v>
       </c>
       <c r="J19" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="K19" t="n">
         <v>4.0</v>
@@ -2385,16 +2388,16 @@
         <v>0.0</v>
       </c>
       <c r="W19" t="n">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="X19" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="Y19" t="n">
-        <v>76.0</v>
+        <v>77.0</v>
       </c>
       <c r="Z19" t="n">
-        <v>37.7</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="20">
@@ -2402,7 +2405,7 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>2217.0</v>
+        <v>2239.0</v>
       </c>
       <c r="C20" t="s">
         <v>101</v>
@@ -2482,7 +2485,7 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>2536.0</v>
+        <v>2560.0</v>
       </c>
       <c r="C21" t="s">
         <v>102</v>
@@ -2506,7 +2509,7 @@
         <v>235</v>
       </c>
       <c r="J21" t="n">
-        <v>17.3</v>
+        <v>18.0</v>
       </c>
       <c r="K21" t="n">
         <v>3.0</v>
@@ -2521,7 +2524,7 @@
         <v>22.0</v>
       </c>
       <c r="O21" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="P21" t="n">
         <v>0.0</v>
@@ -2530,10 +2533,10 @@
         <v>31.0</v>
       </c>
       <c r="R21" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="S21" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="T21" t="n">
         <v>0.0</v>
@@ -2545,7 +2548,7 @@
         <v>0.0</v>
       </c>
       <c r="W21" t="n">
-        <v>94.0</v>
+        <v>97.0</v>
       </c>
       <c r="X21" t="n">
         <v>13.0</v>
@@ -2562,7 +2565,7 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>694.0</v>
+        <v>701.0</v>
       </c>
       <c r="C22" t="s">
         <v>103</v>
@@ -2586,7 +2589,7 @@
         <v>235</v>
       </c>
       <c r="J22" t="n">
-        <v>27.6</v>
+        <v>28.4</v>
       </c>
       <c r="K22" t="n">
         <v>3.0</v>
@@ -2598,13 +2601,13 @@
         <v>0.0</v>
       </c>
       <c r="N22" t="n">
-        <v>47.0</v>
+        <v>51.0</v>
       </c>
       <c r="O22" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="P22" t="n">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="Q22" t="n">
         <v>25.0</v>
@@ -2613,7 +2616,7 @@
         <v>3.0</v>
       </c>
       <c r="S22" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="T22" t="n">
         <v>1.0</v>
@@ -2625,16 +2628,16 @@
         <v>0.0</v>
       </c>
       <c r="W22" t="n">
-        <v>119.0</v>
+        <v>124.0</v>
       </c>
       <c r="X22" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="Y22" t="n">
         <v>47.0</v>
       </c>
       <c r="Z22" t="n">
-        <v>34.7</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="23">
@@ -2642,7 +2645,7 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>1222.0</v>
+        <v>1231.0</v>
       </c>
       <c r="C23" t="s">
         <v>104</v>
@@ -2666,7 +2669,7 @@
         <v>241</v>
       </c>
       <c r="J23" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K23" t="n">
         <v>3.0</v>
@@ -2722,7 +2725,7 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>1231.0</v>
+        <v>1240.0</v>
       </c>
       <c r="C24" t="s">
         <v>105</v>
@@ -2802,7 +2805,7 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>2615.0</v>
+        <v>2639.0</v>
       </c>
       <c r="C25" t="s">
         <v>106</v>
@@ -2826,7 +2829,7 @@
         <v>243</v>
       </c>
       <c r="J25" t="n">
-        <v>33.3</v>
+        <v>34.3</v>
       </c>
       <c r="K25" t="n">
         <v>3.0</v>
@@ -2838,10 +2841,10 @@
         <v>0.0</v>
       </c>
       <c r="N25" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="O25" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="P25" t="n">
         <v>1.0</v>
@@ -2853,7 +2856,7 @@
         <v>36.0</v>
       </c>
       <c r="S25" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="T25" t="n">
         <v>0.0</v>
@@ -2865,16 +2868,16 @@
         <v>0.0</v>
       </c>
       <c r="W25" t="n">
-        <v>163.0</v>
+        <v>165.0</v>
       </c>
       <c r="X25" t="n">
-        <v>134.0</v>
+        <v>136.0</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="Z25" t="n">
-        <v>82.2</v>
+        <v>81.4</v>
       </c>
     </row>
     <row r="26">
@@ -2882,13 +2885,13 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>1436.0</v>
+        <v>1448.0</v>
       </c>
       <c r="C26" t="s">
         <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E26" t="s">
         <v>166</v>
@@ -2962,7 +2965,7 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>1767.0</v>
+        <v>1783.0</v>
       </c>
       <c r="C27" t="s">
         <v>108</v>
@@ -3042,7 +3045,7 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>2143.0</v>
+        <v>2164.0</v>
       </c>
       <c r="C28" t="s">
         <v>109</v>
@@ -3122,7 +3125,7 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>364.0</v>
+        <v>367.0</v>
       </c>
       <c r="C29" t="s">
         <v>110</v>
@@ -3202,16 +3205,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>1627.0</v>
+        <v>801.0</v>
       </c>
       <c r="C30" t="s">
         <v>111</v>
       </c>
       <c r="D30" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F30" t="s">
         <v>172</v>
@@ -3223,10 +3226,10 @@
         <v>202</v>
       </c>
       <c r="I30" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="J30" t="n">
-        <v>8.7</v>
+        <v>14.1</v>
       </c>
       <c r="K30" t="n">
         <v>2.0</v>
@@ -3238,43 +3241,43 @@
         <v>0.0</v>
       </c>
       <c r="N30" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="O30" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="P30" t="n">
         <v>1.0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.0</v>
+        <v>55.0</v>
       </c>
       <c r="R30" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="X30" t="n">
         <v>9.0</v>
       </c>
-      <c r="S30" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>28.0</v>
-      </c>
       <c r="Y30" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z30" t="n">
-        <v>73.7</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="31">
@@ -3282,13 +3285,13 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>2199.0</v>
+        <v>1643.0</v>
       </c>
       <c r="C31" t="s">
         <v>112</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="E31" t="s">
         <v>166</v>
@@ -3303,10 +3306,10 @@
         <v>203</v>
       </c>
       <c r="I31" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="J31" t="n">
-        <v>17.8</v>
+        <v>8.7</v>
       </c>
       <c r="K31" t="n">
         <v>2.0</v>
@@ -3318,22 +3321,22 @@
         <v>0.0</v>
       </c>
       <c r="N31" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R31" t="n">
         <v>9.0</v>
       </c>
-      <c r="O31" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>178.0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>13.0</v>
-      </c>
       <c r="S31" t="n">
-        <v>24.0</v>
+        <v>6.0</v>
       </c>
       <c r="T31" t="n">
         <v>0.0</v>
@@ -3342,19 +3345,19 @@
         <v>0.0</v>
       </c>
       <c r="V31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W31" t="n">
-        <v>96.0</v>
+        <v>58.0</v>
       </c>
       <c r="X31" t="n">
-        <v>13.0</v>
+        <v>28.0</v>
       </c>
       <c r="Y31" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="Z31" t="n">
-        <v>52.0</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="32">
@@ -3362,16 +3365,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>2265.0</v>
+        <v>2220.0</v>
       </c>
       <c r="C32" t="s">
         <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="E32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F32" t="s">
         <v>172</v>
@@ -3383,10 +3386,10 @@
         <v>204</v>
       </c>
       <c r="I32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J32" t="n">
-        <v>26.2</v>
+        <v>17.8</v>
       </c>
       <c r="K32" t="n">
         <v>2.0</v>
@@ -3398,25 +3401,25 @@
         <v>0.0</v>
       </c>
       <c r="N32" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="O32" t="n">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
       <c r="P32" t="n">
-        <v>14.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.0</v>
+        <v>178.0</v>
       </c>
       <c r="R32" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.0</v>
+        <v>24.0</v>
       </c>
       <c r="T32" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U32" t="n">
         <v>0.0</v>
@@ -3425,16 +3428,16 @@
         <v>0.0</v>
       </c>
       <c r="W32" t="n">
-        <v>81.0</v>
+        <v>96.0</v>
       </c>
       <c r="X32" t="n">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="Y32" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z32" t="n">
-        <v>31.6</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="33">
@@ -3442,19 +3445,19 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>506.0</v>
+        <v>2287.0</v>
       </c>
       <c r="C33" t="s">
         <v>114</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E33" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G33" t="s">
         <v>173</v>
@@ -3463,13 +3466,13 @@
         <v>205</v>
       </c>
       <c r="I33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J33" t="n">
-        <v>0.8</v>
+        <v>27.2</v>
       </c>
       <c r="K33" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L33" t="n">
         <v>0.0</v>
@@ -3478,25 +3481,25 @@
         <v>0.0</v>
       </c>
       <c r="N33" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="O33" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="P33" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="R33" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S33" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U33" t="n">
         <v>0.0</v>
@@ -3505,16 +3508,16 @@
         <v>0.0</v>
       </c>
       <c r="W33" t="n">
-        <v>3.0</v>
+        <v>82.0</v>
       </c>
       <c r="X33" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z33" t="n">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="34">
@@ -3522,16 +3525,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>676.0</v>
+        <v>511.0</v>
       </c>
       <c r="C34" t="s">
         <v>115</v>
       </c>
       <c r="D34" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E34" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F34" t="s">
         <v>171</v>
@@ -3543,10 +3546,10 @@
         <v>206</v>
       </c>
       <c r="I34" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="J34" t="n">
-        <v>22.2</v>
+        <v>0.9</v>
       </c>
       <c r="K34" t="n">
         <v>1.0</v>
@@ -3558,43 +3561,43 @@
         <v>0.0</v>
       </c>
       <c r="N34" t="n">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c r="O34" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="P34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W34" t="n">
         <v>5.0</v>
       </c>
-      <c r="Q34" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>59.0</v>
-      </c>
       <c r="X34" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y34" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z34" t="n">
-        <v>12.5</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="35">
@@ -3602,16 +3605,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>2559.0</v>
+        <v>683.0</v>
       </c>
       <c r="C35" t="s">
         <v>116</v>
       </c>
       <c r="D35" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E35" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F35" t="s">
         <v>171</v>
@@ -3623,10 +3626,10 @@
         <v>207</v>
       </c>
       <c r="I35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J35" t="n">
-        <v>26.4</v>
+        <v>23.2</v>
       </c>
       <c r="K35" t="n">
         <v>1.0</v>
@@ -3638,43 +3641,43 @@
         <v>0.0</v>
       </c>
       <c r="N35" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="O35" t="n">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="P35" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="X35" t="n">
         <v>2.0</v>
       </c>
-      <c r="Q35" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="R35" t="n">
+      <c r="Y35" t="n">
         <v>14.0</v>
       </c>
-      <c r="S35" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>22.0</v>
-      </c>
       <c r="Z35" t="n">
-        <v>50.0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="36">
@@ -3682,19 +3685,19 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>77.0</v>
+        <v>2583.0</v>
       </c>
       <c r="C36" t="s">
         <v>117</v>
       </c>
       <c r="D36" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="E36" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G36" t="s">
         <v>173</v>
@@ -3703,10 +3706,10 @@
         <v>208</v>
       </c>
       <c r="I36" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J36" t="n">
-        <v>26.0</v>
+        <v>27.4</v>
       </c>
       <c r="K36" t="n">
         <v>1.0</v>
@@ -3718,22 +3721,22 @@
         <v>0.0</v>
       </c>
       <c r="N36" t="n">
-        <v>1.0</v>
+        <v>18.0</v>
       </c>
       <c r="O36" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="P36" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="S36" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="T36" t="n">
         <v>0.0</v>
@@ -3745,16 +3748,16 @@
         <v>0.0</v>
       </c>
       <c r="W36" t="n">
-        <v>34.0</v>
+        <v>127.0</v>
       </c>
       <c r="X36" t="n">
-        <v>6.0</v>
+        <v>23.0</v>
       </c>
       <c r="Y36" t="n">
-        <v>2.0</v>
+        <v>22.0</v>
       </c>
       <c r="Z36" t="n">
-        <v>75.0</v>
+        <v>51.1</v>
       </c>
     </row>
     <row r="37">
@@ -3762,16 +3765,16 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>624.0</v>
+        <v>78.0</v>
       </c>
       <c r="C37" t="s">
         <v>118</v>
       </c>
       <c r="D37" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E37" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F37" t="s">
         <v>172</v>
@@ -3783,10 +3786,10 @@
         <v>209</v>
       </c>
       <c r="I37" t="s">
-        <v>63</v>
+        <v>238</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1</v>
+        <v>27.0</v>
       </c>
       <c r="K37" t="n">
         <v>1.0</v>
@@ -3798,10 +3801,10 @@
         <v>0.0</v>
       </c>
       <c r="N37" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="P37" t="n">
         <v>0.0</v>
@@ -3825,16 +3828,16 @@
         <v>0.0</v>
       </c>
       <c r="W37" t="n">
-        <v>1.0</v>
+        <v>35.0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="Y37" t="n">
         <v>2.0</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="38">
@@ -3842,7 +3845,7 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>794.0</v>
+        <v>630.0</v>
       </c>
       <c r="C38" t="s">
         <v>119</v>
@@ -3851,7 +3854,7 @@
         <v>149</v>
       </c>
       <c r="E38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F38" t="s">
         <v>172</v>
@@ -3863,10 +3866,10 @@
         <v>210</v>
       </c>
       <c r="I38" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="J38" t="n">
-        <v>13.3</v>
+        <v>0.1</v>
       </c>
       <c r="K38" t="n">
         <v>1.0</v>
@@ -3878,25 +3881,25 @@
         <v>0.0</v>
       </c>
       <c r="N38" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="O38" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q38" t="n">
-        <v>52.0</v>
+        <v>0.0</v>
       </c>
       <c r="R38" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="S38" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="T38" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U38" t="n">
         <v>0.0</v>
@@ -3905,16 +3908,16 @@
         <v>0.0</v>
       </c>
       <c r="W38" t="n">
-        <v>75.0</v>
+        <v>1.0</v>
       </c>
       <c r="X38" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y38" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z38" t="n">
-        <v>45.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
@@ -3922,7 +3925,7 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>909.0</v>
+        <v>916.0</v>
       </c>
       <c r="C39" t="s">
         <v>120</v>
@@ -3946,7 +3949,7 @@
         <v>234</v>
       </c>
       <c r="J39" t="n">
-        <v>16.6</v>
+        <v>17.4</v>
       </c>
       <c r="K39" t="n">
         <v>1.0</v>
@@ -3958,10 +3961,10 @@
         <v>0.0</v>
       </c>
       <c r="N39" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="O39" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="P39" t="n">
         <v>8.0</v>
@@ -3985,7 +3988,7 @@
         <v>0.0</v>
       </c>
       <c r="W39" t="n">
-        <v>71.0</v>
+        <v>74.0</v>
       </c>
       <c r="X39" t="n">
         <v>30.0</v>
@@ -4002,7 +4005,7 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>2118.0</v>
+        <v>2139.0</v>
       </c>
       <c r="C40" t="s">
         <v>121</v>
@@ -4026,7 +4029,7 @@
         <v>237</v>
       </c>
       <c r="J40" t="n">
-        <v>11.2</v>
+        <v>12.2</v>
       </c>
       <c r="K40" t="n">
         <v>1.0</v>
@@ -4038,7 +4041,7 @@
         <v>0.0</v>
       </c>
       <c r="N40" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="O40" t="n">
         <v>2.0</v>
@@ -4050,10 +4053,10 @@
         <v>0.0</v>
       </c>
       <c r="R40" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="S40" t="n">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="T40" t="n">
         <v>0.0</v>
@@ -4065,13 +4068,13 @@
         <v>0.0</v>
       </c>
       <c r="W40" t="n">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="X40" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="Y40" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="Z40" t="n">
         <v>65.6</v>
@@ -4082,7 +4085,7 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>2486.0</v>
+        <v>2510.0</v>
       </c>
       <c r="C41" t="s">
         <v>122</v>
@@ -4103,10 +4106,10 @@
         <v>213</v>
       </c>
       <c r="I41" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J41" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="K41" t="n">
         <v>1.0</v>
@@ -4145,16 +4148,16 @@
         <v>0.0</v>
       </c>
       <c r="W41" t="n">
-        <v>168.0</v>
+        <v>170.0</v>
       </c>
       <c r="X41" t="n">
         <v>12.0</v>
       </c>
       <c r="Y41" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="Z41" t="n">
-        <v>40.0</v>
+        <v>38.7</v>
       </c>
     </row>
     <row r="42">
@@ -4162,7 +4165,7 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>589.0</v>
+        <v>594.0</v>
       </c>
       <c r="C42" t="s">
         <v>123</v>
@@ -4242,7 +4245,7 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>664.0</v>
+        <v>671.0</v>
       </c>
       <c r="C43" t="s">
         <v>124</v>
@@ -4322,7 +4325,7 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>1173.0</v>
+        <v>1181.0</v>
       </c>
       <c r="C44" t="s">
         <v>125</v>
@@ -4402,7 +4405,7 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>1305.0</v>
+        <v>1314.0</v>
       </c>
       <c r="C45" t="s">
         <v>126</v>
@@ -4423,7 +4426,7 @@
         <v>217</v>
       </c>
       <c r="I45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J45" t="n">
         <v>0.2</v>
@@ -4482,7 +4485,7 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>1309.0</v>
+        <v>1318.0</v>
       </c>
       <c r="C46" t="s">
         <v>127</v>
@@ -4562,7 +4565,7 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>1727.0</v>
+        <v>1743.0</v>
       </c>
       <c r="C47" t="s">
         <v>128</v>
@@ -4642,7 +4645,7 @@
         <v>71</v>
       </c>
       <c r="B48" t="n">
-        <v>1927.0</v>
+        <v>1945.0</v>
       </c>
       <c r="C48" t="s">
         <v>129</v>
@@ -4663,7 +4666,7 @@
         <v>220</v>
       </c>
       <c r="I48" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J48" t="n">
         <v>3.5</v>
@@ -4722,7 +4725,7 @@
         <v>72</v>
       </c>
       <c r="B49" t="n">
-        <v>2074.0</v>
+        <v>2095.0</v>
       </c>
       <c r="C49" t="s">
         <v>130</v>
@@ -4802,7 +4805,7 @@
         <v>73</v>
       </c>
       <c r="B50" t="n">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="C50" t="s">
         <v>131</v>
@@ -4882,7 +4885,7 @@
         <v>74</v>
       </c>
       <c r="B51" t="n">
-        <v>183.0</v>
+        <v>186.0</v>
       </c>
       <c r="C51" t="s">
         <v>132</v>
@@ -4903,7 +4906,7 @@
         <v>223</v>
       </c>
       <c r="I51" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J51" t="n">
         <v>0.3</v>
@@ -4962,7 +4965,7 @@
         <v>75</v>
       </c>
       <c r="B52" t="n">
-        <v>243.0</v>
+        <v>246.0</v>
       </c>
       <c r="C52" t="s">
         <v>133</v>
@@ -5042,7 +5045,7 @@
         <v>76</v>
       </c>
       <c r="B53" t="n">
-        <v>537.0</v>
+        <v>542.0</v>
       </c>
       <c r="C53" t="s">
         <v>134</v>
@@ -5063,7 +5066,7 @@
         <v>225</v>
       </c>
       <c r="I53" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J53" t="n">
         <v>1.0</v>
@@ -5122,13 +5125,13 @@
         <v>77</v>
       </c>
       <c r="B54" t="n">
-        <v>720.0</v>
+        <v>727.0</v>
       </c>
       <c r="C54" t="s">
         <v>135</v>
       </c>
       <c r="D54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E54" t="s">
         <v>165</v>
@@ -5143,7 +5146,7 @@
         <v>226</v>
       </c>
       <c r="I54" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J54" t="n">
         <v>0.2</v>
@@ -5202,7 +5205,7 @@
         <v>78</v>
       </c>
       <c r="B55" t="n">
-        <v>994.0</v>
+        <v>1002.0</v>
       </c>
       <c r="C55" t="s">
         <v>136</v>
@@ -5223,7 +5226,7 @@
         <v>227</v>
       </c>
       <c r="I55" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J55" t="n">
         <v>0.0</v>
@@ -5282,7 +5285,7 @@
         <v>79</v>
       </c>
       <c r="B56" t="n">
-        <v>1008.0</v>
+        <v>1016.0</v>
       </c>
       <c r="C56" t="s">
         <v>137</v>
@@ -5306,7 +5309,7 @@
         <v>240</v>
       </c>
       <c r="J56" t="n">
-        <v>12.0</v>
+        <v>12.2</v>
       </c>
       <c r="K56" t="n">
         <v>0.0</v>
@@ -5345,7 +5348,7 @@
         <v>0.0</v>
       </c>
       <c r="W56" t="n">
-        <v>73.0</v>
+        <v>74.0</v>
       </c>
       <c r="X56" t="n">
         <v>10.0</v>
@@ -5362,7 +5365,7 @@
         <v>80</v>
       </c>
       <c r="B57" t="n">
-        <v>1302.0</v>
+        <v>1311.0</v>
       </c>
       <c r="C57" t="s">
         <v>138</v>
@@ -5442,7 +5445,7 @@
         <v>81</v>
       </c>
       <c r="B58" t="n">
-        <v>1667.0</v>
+        <v>1683.0</v>
       </c>
       <c r="C58" t="s">
         <v>139</v>
@@ -5463,7 +5466,7 @@
         <v>230</v>
       </c>
       <c r="I58" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J58" t="n">
         <v>0.0</v>
@@ -5522,7 +5525,7 @@
         <v>82</v>
       </c>
       <c r="B59" t="n">
-        <v>2586.0</v>
+        <v>2610.0</v>
       </c>
       <c r="C59" t="s">
         <v>140</v>
@@ -5637,79 +5640,79 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M1" t="s">
         <v>8</v>
       </c>
       <c r="N1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="R1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="S1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="T1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="U1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="W1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="X1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Z1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AA1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AB1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AC1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AD1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AE1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AH1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2">
@@ -5717,7 +5720,7 @@
         <v>42</v>
       </c>
       <c r="B2" t="n">
-        <v>2687.0</v>
+        <v>2712.0</v>
       </c>
       <c r="C2" t="s">
         <v>100</v>
@@ -5741,25 +5744,25 @@
         <v>239</v>
       </c>
       <c r="J2" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="K2" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="L2" t="e">
         <v>#N/A</v>
       </c>
       <c r="M2" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="N2" t="n">
         <v>19.0</v>
       </c>
       <c r="O2" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="P2" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="Q2" t="n">
         <v>19.0</v>
@@ -5777,37 +5780,37 @@
         <v>0.0</v>
       </c>
       <c r="V2" t="n">
-        <v>16.0</v>
+        <v>16.5</v>
       </c>
       <c r="W2" t="n">
-        <v>16.0</v>
+        <v>16.5</v>
       </c>
       <c r="X2" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="Y2" t="n">
-        <v>23.1</v>
+        <v>23.9</v>
       </c>
       <c r="Z2" t="n">
-        <v>58.0</v>
+        <v>61.0</v>
       </c>
       <c r="AA2" t="n">
         <v>55.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>208.0</v>
+        <v>214.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.56</v>
+        <v>0.54</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="AE2" t="n">
         <v>0.91</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.56</v>
+        <v>0.54</v>
       </c>
       <c r="AG2" t="n">
         <v>0.91</v>
@@ -5818,13 +5821,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" t="n">
-        <v>2265.0</v>
+        <v>2287.0</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
         <v>158</v>
@@ -5839,22 +5842,22 @@
         <v>173</v>
       </c>
       <c r="H3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I3" t="s">
         <v>238</v>
       </c>
       <c r="J3" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="K3" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="L3" t="e">
         <v>#N/A</v>
       </c>
       <c r="M3" t="n">
-        <v>26.2</v>
+        <v>27.2</v>
       </c>
       <c r="N3" t="n">
         <v>18.0</v>
@@ -5887,37 +5890,37 @@
         <v>14.4</v>
       </c>
       <c r="X3" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="Z3" t="n">
-        <v>90.0</v>
+        <v>92.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>141.0</v>
+        <v>145.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>312.0</v>
+        <v>325.0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.69</v>
+        <v>0.66</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="4">
@@ -5925,7 +5928,7 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>1886.0</v>
+        <v>1904.0</v>
       </c>
       <c r="C4" t="s">
         <v>85</v>
@@ -5949,7 +5952,7 @@
         <v>234</v>
       </c>
       <c r="J4" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="K4" t="n">
         <v>22.0</v>
@@ -5958,7 +5961,7 @@
         <v>#N/A</v>
       </c>
       <c r="M4" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="N4" t="n">
         <v>11.0</v>
@@ -5997,13 +6000,13 @@
         <v>21.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>56.0</v>
+        <v>58.0</v>
       </c>
       <c r="AA4" t="n">
         <v>53.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>202.0</v>
+        <v>203.0</v>
       </c>
       <c r="AC4" t="n">
         <v>0.49</v>
@@ -6012,13 +6015,13 @@
         <v>0.36</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="AF4" t="n">
         <v>0.49</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="AH4" t="n">
         <v>0.72</v>
@@ -6029,7 +6032,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="n">
-        <v>181.0</v>
+        <v>184.0</v>
       </c>
       <c r="C5" t="s">
         <v>93</v>
@@ -6053,16 +6056,16 @@
         <v>235</v>
       </c>
       <c r="J5" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="K5" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="L5" t="e">
         <v>#N/A</v>
       </c>
       <c r="M5" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="N5" t="n">
         <v>10.0</v>
@@ -6089,43 +6092,43 @@
         <v>0.0</v>
       </c>
       <c r="V5" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="W5" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="X5" t="n">
-        <v>7.9</v>
+        <v>9.2</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.0</v>
+        <v>15.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>101.0</v>
+        <v>102.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>78.0</v>
+        <v>82.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>223.0</v>
+        <v>226.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="6">
@@ -6133,7 +6136,7 @@
         <v>47</v>
       </c>
       <c r="B6" t="n">
-        <v>1231.0</v>
+        <v>1240.0</v>
       </c>
       <c r="C6" t="s">
         <v>105</v>
@@ -6237,7 +6240,7 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>1503.0</v>
+        <v>1515.0</v>
       </c>
       <c r="C7" t="s">
         <v>83</v>
@@ -6261,16 +6264,16 @@
         <v>232</v>
       </c>
       <c r="J7" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="K7" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="L7" t="e">
         <v>#N/A</v>
       </c>
       <c r="M7" t="n">
-        <v>31.4</v>
+        <v>32.3</v>
       </c>
       <c r="N7" t="n">
         <v>9.0</v>
@@ -6297,40 +6300,40 @@
         <v>0.0</v>
       </c>
       <c r="V7" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="W7" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="X7" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.5</v>
+        <v>8.7</v>
       </c>
       <c r="Z7" t="n">
         <v>60.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>163.0</v>
+        <v>166.0</v>
       </c>
       <c r="AB7" t="n">
         <v>49.0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AD7" t="n">
         <v>0.16</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="AF7" t="n">
         <v>0.16</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="AH7" t="n">
         <v>0.22</v>
@@ -6341,7 +6344,7 @@
         <v>45</v>
       </c>
       <c r="B8" t="n">
-        <v>694.0</v>
+        <v>701.0</v>
       </c>
       <c r="C8" t="s">
         <v>103</v>
@@ -6365,16 +6368,16 @@
         <v>235</v>
       </c>
       <c r="J8" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="K8" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="L8" t="e">
         <v>#N/A</v>
       </c>
       <c r="M8" t="n">
-        <v>27.6</v>
+        <v>28.4</v>
       </c>
       <c r="N8" t="n">
         <v>8.0</v>
@@ -6407,37 +6410,37 @@
         <v>11.4</v>
       </c>
       <c r="X8" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y8" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>127.0</v>
+        <v>131.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>112.0</v>
+        <v>113.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>284.0</v>
+        <v>289.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AD8" t="n">
         <v>0.18</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9">
@@ -6445,7 +6448,7 @@
         <v>62</v>
       </c>
       <c r="B9" t="n">
-        <v>909.0</v>
+        <v>916.0</v>
       </c>
       <c r="C9" t="s">
         <v>120</v>
@@ -6469,28 +6472,28 @@
         <v>234</v>
       </c>
       <c r="J9" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="K9" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="L9" t="e">
         <v>#N/A</v>
       </c>
       <c r="M9" t="n">
-        <v>16.6</v>
+        <v>17.4</v>
       </c>
       <c r="N9" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="O9" t="n">
         <v>5.0</v>
       </c>
       <c r="P9" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="R9" t="n">
         <v>0.0</v>
@@ -6505,57 +6508,57 @@
         <v>0.0</v>
       </c>
       <c r="V9" t="n">
-        <v>7.0</v>
+        <v>8.1</v>
       </c>
       <c r="W9" t="n">
-        <v>7.0</v>
+        <v>8.1</v>
       </c>
       <c r="X9" t="n">
         <v>2.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.6</v>
+        <v>10.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>77.0</v>
+        <v>79.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>115.0</v>
+        <v>120.0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" t="n">
-        <v>676.0</v>
+        <v>683.0</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E10" t="s">
         <v>168</v>
@@ -6567,31 +6570,31 @@
         <v>173</v>
       </c>
       <c r="H10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I10" t="s">
         <v>234</v>
       </c>
       <c r="J10" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="K10" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="L10" t="e">
         <v>#N/A</v>
       </c>
       <c r="M10" t="n">
-        <v>22.2</v>
+        <v>23.2</v>
       </c>
       <c r="N10" t="n">
         <v>6.0</v>
       </c>
       <c r="O10" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="P10" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="Q10" t="n">
         <v>6.0</v>
@@ -6609,57 +6612,57 @@
         <v>0.0</v>
       </c>
       <c r="V10" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="W10" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="X10" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.8</v>
+        <v>13.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>67.0</v>
+        <v>70.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>173.0</v>
+        <v>182.0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>1668.0</v>
+        <v>1684.0</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
         <v>167</v>
@@ -6671,22 +6674,22 @@
         <v>173</v>
       </c>
       <c r="H11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I11" t="s">
         <v>236</v>
       </c>
       <c r="J11" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="K11" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="L11" t="e">
         <v>#N/A</v>
       </c>
       <c r="M11" t="n">
-        <v>31.4</v>
+        <v>32.4</v>
       </c>
       <c r="N11" t="n">
         <v>6.0</v>
@@ -6707,257 +6710,257 @@
         <v>0.0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="U11" t="n">
         <v>1.0</v>
       </c>
       <c r="V11" t="n">
-        <v>4.9</v>
+        <v>5.0</v>
       </c>
       <c r="W11" t="n">
-        <v>4.9</v>
+        <v>5.0</v>
       </c>
       <c r="X11" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.3</v>
+        <v>9.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>55.0</v>
+        <v>58.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>178.0</v>
+        <v>188.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>81.0</v>
+        <v>84.0</v>
       </c>
       <c r="AC11" t="n">
         <v>0.19</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="AF11" t="n">
         <v>0.19</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B12" t="n">
-        <v>1519.0</v>
+        <v>776.0</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E12" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G12" t="s">
         <v>173</v>
       </c>
       <c r="H12" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="I12" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="J12" t="n">
-        <v>31.0</v>
+        <v>22.0</v>
       </c>
       <c r="K12" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="L12" t="e">
-        <v>#N/A</v>
+        <v>2.0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>385.0</v>
       </c>
       <c r="M12" t="n">
-        <v>27.1</v>
+        <v>4.3</v>
       </c>
       <c r="N12" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="O12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P12" t="n">
         <v>5.0</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z12" t="n">
         <v>9.0</v>
       </c>
-      <c r="Q12" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>39.0</v>
-      </c>
       <c r="AA12" t="n">
-        <v>199.0</v>
+        <v>8.0</v>
       </c>
       <c r="AB12" t="n">
-        <v>42.0</v>
+        <v>21.0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.15</v>
+        <v>1.17</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.18</v>
+        <v>0.0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.33</v>
+        <v>1.17</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.11</v>
+        <v>1.17</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.3</v>
+        <v>1.17</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.11</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B13" t="n">
-        <v>769.0</v>
+        <v>1532.0</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E13" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G13" t="s">
         <v>173</v>
       </c>
       <c r="H13" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I13" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J13" t="n">
-        <v>21.0</v>
+        <v>32.0</v>
       </c>
       <c r="K13" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>373.0</v>
+        <v>30.0</v>
+      </c>
+      <c r="L13" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M13" t="n">
-        <v>4.1</v>
+        <v>28.1</v>
       </c>
       <c r="N13" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="P13" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="Q13" t="n">
         <v>3.0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T13" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.6</v>
+        <v>3.0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="X13" t="n">
-        <v>0.2</v>
+        <v>3.3</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>9.0</v>
+        <v>41.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>8.0</v>
+        <v>205.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>20.0</v>
+        <v>45.0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.72</v>
+        <v>0.14</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.0</v>
+        <v>0.18</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.72</v>
+        <v>0.32</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.72</v>
+        <v>0.11</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.72</v>
+        <v>0.28</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.38</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="14">
@@ -6965,7 +6968,7 @@
         <v>43</v>
       </c>
       <c r="B14" t="n">
-        <v>2217.0</v>
+        <v>2239.0</v>
       </c>
       <c r="C14" t="s">
         <v>101</v>
@@ -7069,7 +7072,7 @@
         <v>34</v>
       </c>
       <c r="B15" t="n">
-        <v>70.0</v>
+        <v>71.0</v>
       </c>
       <c r="C15" t="s">
         <v>92</v>
@@ -7093,16 +7096,16 @@
         <v>232</v>
       </c>
       <c r="J15" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="K15" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="L15" t="e">
         <v>#N/A</v>
       </c>
       <c r="M15" t="n">
-        <v>22.2</v>
+        <v>23.2</v>
       </c>
       <c r="N15" t="n">
         <v>3.0</v>
@@ -7138,31 +7141,31 @@
         <v>6.0</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.0</v>
+        <v>8.1</v>
       </c>
       <c r="Z15" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>190.0</v>
+        <v>196.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>91.0</v>
+        <v>94.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="AH15" t="n">
         <v>0.1</v>
@@ -7170,13 +7173,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B16" t="n">
-        <v>794.0</v>
+        <v>801.0</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
         <v>149</v>
@@ -7191,31 +7194,31 @@
         <v>173</v>
       </c>
       <c r="H16" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="I16" t="s">
         <v>237</v>
       </c>
       <c r="J16" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="K16" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="L16" t="e">
         <v>#N/A</v>
       </c>
       <c r="M16" t="n">
-        <v>13.3</v>
+        <v>14.1</v>
       </c>
       <c r="N16" t="n">
         <v>3.0</v>
       </c>
       <c r="O16" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="P16" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Q16" t="n">
         <v>3.0</v>
@@ -7227,7 +7230,7 @@
         <v>0.0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U16" t="n">
         <v>0.0</v>
@@ -7239,51 +7242,51 @@
         <v>2.4</v>
       </c>
       <c r="X16" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="Z16" t="n">
-        <v>37.0</v>
+        <v>40.0</v>
       </c>
       <c r="AA16" t="n">
-        <v>108.0</v>
+        <v>114.0</v>
       </c>
       <c r="AB16" t="n">
-        <v>110.0</v>
+        <v>112.0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.53</v>
+        <v>0.57</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.53</v>
+        <v>0.57</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17" t="n">
-        <v>2199.0</v>
+        <v>2220.0</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E17" t="s">
         <v>166</v>
@@ -7295,7 +7298,7 @@
         <v>173</v>
       </c>
       <c r="H17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I17" t="s">
         <v>236</v>
@@ -7381,7 +7384,7 @@
         <v>64</v>
       </c>
       <c r="B18" t="n">
-        <v>2486.0</v>
+        <v>2510.0</v>
       </c>
       <c r="C18" t="s">
         <v>122</v>
@@ -7402,10 +7405,10 @@
         <v>213</v>
       </c>
       <c r="I18" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J18" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="K18" t="n">
         <v>25.0</v>
@@ -7414,7 +7417,7 @@
         <v>#N/A</v>
       </c>
       <c r="M18" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="N18" t="n">
         <v>3.0</v>
@@ -7441,25 +7444,25 @@
         <v>0.0</v>
       </c>
       <c r="V18" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="W18" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="X18" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.0</v>
+        <v>9.2</v>
       </c>
       <c r="Z18" t="n">
         <v>73.0</v>
       </c>
       <c r="AA18" t="n">
-        <v>148.0</v>
+        <v>151.0</v>
       </c>
       <c r="AB18" t="n">
-        <v>154.0</v>
+        <v>158.0</v>
       </c>
       <c r="AC18" t="n">
         <v>0.13</v>
@@ -7468,16 +7471,16 @@
         <v>0.09</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="AF18" t="n">
         <v>0.13</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="19">
@@ -7485,7 +7488,7 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>473.0</v>
+        <v>478.0</v>
       </c>
       <c r="C19" t="s">
         <v>86</v>
@@ -7589,7 +7592,7 @@
         <v>50</v>
       </c>
       <c r="B20" t="n">
-        <v>1767.0</v>
+        <v>1783.0</v>
       </c>
       <c r="C20" t="s">
         <v>108</v>
@@ -7690,19 +7693,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>2559.0</v>
+        <v>2560.0</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F21" t="s">
         <v>171</v>
@@ -7711,31 +7714,31 @@
         <v>173</v>
       </c>
       <c r="H21" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="I21" t="s">
         <v>235</v>
       </c>
       <c r="J21" t="n">
-        <v>28.0</v>
+        <v>32.0</v>
       </c>
       <c r="K21" t="n">
-        <v>26.0</v>
+        <v>17.0</v>
       </c>
       <c r="L21" t="e">
         <v>#N/A</v>
       </c>
       <c r="M21" t="n">
-        <v>26.4</v>
+        <v>18.0</v>
       </c>
       <c r="N21" t="n">
         <v>2.0</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="Q21" t="n">
         <v>2.0</v>
@@ -7747,66 +7750,66 @@
         <v>0.0</v>
       </c>
       <c r="T21" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="U21" t="n">
         <v>0.0</v>
       </c>
       <c r="V21" t="n">
-        <v>1.0</v>
+        <v>1.3</v>
       </c>
       <c r="W21" t="n">
-        <v>1.0</v>
+        <v>1.3</v>
       </c>
       <c r="X21" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="Z21" t="n">
-        <v>42.0</v>
+        <v>23.0</v>
       </c>
       <c r="AA21" t="n">
-        <v>127.0</v>
+        <v>128.0</v>
       </c>
       <c r="AB21" t="n">
-        <v>16.0</v>
+        <v>46.0</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.0</v>
+        <v>0.33</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.08</v>
+        <v>0.44</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.08</v>
+        <v>0.44</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.04</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B22" t="n">
-        <v>2755.0</v>
+        <v>2583.0</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F22" t="s">
         <v>171</v>
@@ -7815,22 +7818,22 @@
         <v>173</v>
       </c>
       <c r="H22" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="I22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J22" t="n">
-        <v>24.0</v>
+        <v>29.0</v>
       </c>
       <c r="K22" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>825.0</v>
+        <v>27.0</v>
+      </c>
+      <c r="L22" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M22" t="n">
-        <v>9.2</v>
+        <v>27.4</v>
       </c>
       <c r="N22" t="n">
         <v>2.0</v>
@@ -7851,99 +7854,99 @@
         <v>0.0</v>
       </c>
       <c r="T22" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="U22" t="n">
         <v>0.0</v>
       </c>
       <c r="V22" t="n">
-        <v>2.3</v>
+        <v>1.0</v>
       </c>
       <c r="W22" t="n">
-        <v>2.3</v>
+        <v>1.0</v>
       </c>
       <c r="X22" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="Z22" t="n">
-        <v>35.0</v>
+        <v>42.0</v>
       </c>
       <c r="AA22" t="n">
-        <v>30.0</v>
+        <v>128.0</v>
       </c>
       <c r="AB22" t="n">
-        <v>59.0</v>
+        <v>16.0</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.22</v>
+        <v>0.07</v>
       </c>
       <c r="AD22" t="n">
         <v>0.0</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.22</v>
+        <v>0.07</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.22</v>
+        <v>0.07</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.22</v>
+        <v>0.07</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.25</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>2615.0</v>
+        <v>2780.0</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E23" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G23" t="s">
         <v>173</v>
       </c>
       <c r="H23" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="I23" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="J23" t="n">
-        <v>34.0</v>
+        <v>25.0</v>
       </c>
       <c r="K23" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="L23" t="e">
-        <v>#N/A</v>
+        <v>9.0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>839.0</v>
       </c>
       <c r="M23" t="n">
-        <v>33.3</v>
+        <v>9.3</v>
       </c>
       <c r="N23" t="n">
         <v>2.0</v>
       </c>
       <c r="O23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P23" t="n">
         <v>2.0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4.0</v>
       </c>
       <c r="Q23" t="n">
         <v>2.0</v>
@@ -7955,10 +7958,10 @@
         <v>0.0</v>
       </c>
       <c r="T23" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V23" t="n">
         <v>2.6</v>
@@ -7967,90 +7970,90 @@
         <v>2.6</v>
       </c>
       <c r="X23" t="n">
-        <v>1.6</v>
+        <v>1.0</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Z23" t="n">
-        <v>32.0</v>
+        <v>35.0</v>
       </c>
       <c r="AA23" t="n">
-        <v>191.0</v>
+        <v>30.0</v>
       </c>
       <c r="AB23" t="n">
-        <v>6.0</v>
+        <v>60.0</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.06</v>
+        <v>0.21</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.06</v>
+        <v>0.0</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.06</v>
+        <v>0.21</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.08</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B24" t="n">
-        <v>664.0</v>
+        <v>2639.0</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E24" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G24" t="s">
         <v>173</v>
       </c>
       <c r="H24" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="I24" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="J24" t="n">
-        <v>8.0</v>
+        <v>35.0</v>
       </c>
       <c r="K24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>119.0</v>
+        <v>35.0</v>
+      </c>
+      <c r="L24" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M24" t="n">
-        <v>1.3</v>
+        <v>34.3</v>
       </c>
       <c r="N24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R24" t="n">
         <v>0.0</v>
@@ -8059,66 +8062,66 @@
         <v>0.0</v>
       </c>
       <c r="T24" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V24" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="W24" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="X24" t="n">
-        <v>0.0</v>
+        <v>1.6</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.7</v>
+        <v>4.2</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="AA24" t="n">
-        <v>3.0</v>
+        <v>195.0</v>
       </c>
       <c r="AB24" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.76</v>
+        <v>0.06</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.0</v>
+        <v>0.06</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.76</v>
+        <v>0.12</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.76</v>
+        <v>0.06</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.76</v>
+        <v>0.12</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.56</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B25" t="n">
-        <v>703.0</v>
+        <v>671.0</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F25" t="s">
         <v>171</v>
@@ -8127,99 +8130,99 @@
         <v>173</v>
       </c>
       <c r="H25" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="I25" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="J25" t="n">
-        <v>31.0</v>
+        <v>8.0</v>
       </c>
       <c r="K25" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="L25" t="e">
-        <v>#N/A</v>
+        <v>1.0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>119.0</v>
       </c>
       <c r="M25" t="n">
-        <v>24.8</v>
+        <v>1.3</v>
       </c>
       <c r="N25" t="n">
         <v>1.0</v>
       </c>
       <c r="O25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA25" t="n">
         <v>3.0</v>
       </c>
-      <c r="P25" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X25" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>73.0</v>
-      </c>
       <c r="AB25" t="n">
-        <v>190.0</v>
+        <v>2.0</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.04</v>
+        <v>0.76</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.12</v>
+        <v>0.0</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.16</v>
+        <v>0.76</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.04</v>
+        <v>0.76</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.16</v>
+        <v>0.76</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.04</v>
+        <v>0.56</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B26" t="n">
-        <v>1342.0</v>
+        <v>710.0</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E26" t="s">
         <v>166</v>
@@ -8231,31 +8234,31 @@
         <v>173</v>
       </c>
       <c r="H26" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I26" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J26" t="n">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
       <c r="K26" t="n">
-        <v>33.0</v>
+        <v>26.0</v>
       </c>
       <c r="L26" t="e">
         <v>#N/A</v>
       </c>
       <c r="M26" t="n">
-        <v>32.1</v>
+        <v>25.8</v>
       </c>
       <c r="N26" t="n">
         <v>1.0</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q26" t="n">
         <v>1.0</v>
@@ -8267,66 +8270,66 @@
         <v>0.0</v>
       </c>
       <c r="T26" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="U26" t="n">
         <v>0.0</v>
       </c>
       <c r="V26" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="W26" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="X26" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.9</v>
+        <v>4.9</v>
       </c>
       <c r="Z26" t="n">
-        <v>35.0</v>
+        <v>42.0</v>
       </c>
       <c r="AA26" t="n">
-        <v>132.0</v>
+        <v>76.0</v>
       </c>
       <c r="AB26" t="n">
-        <v>30.0</v>
+        <v>196.0</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.0</v>
+        <v>0.12</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.03</v>
+        <v>0.16</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.03</v>
+        <v>0.16</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.07</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B27" t="n">
-        <v>2143.0</v>
+        <v>1352.0</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
         <v>149</v>
       </c>
       <c r="E27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F27" t="s">
         <v>171</v>
@@ -8335,31 +8338,31 @@
         <v>173</v>
       </c>
       <c r="H27" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="I27" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="J27" t="n">
-        <v>16.0</v>
+        <v>34.0</v>
       </c>
       <c r="K27" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>853.0</v>
+        <v>34.0</v>
+      </c>
+      <c r="L27" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M27" t="n">
-        <v>9.5</v>
+        <v>33.1</v>
       </c>
       <c r="N27" t="n">
         <v>1.0</v>
       </c>
       <c r="O27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q27" t="n">
         <v>1.0</v>
@@ -8371,66 +8374,66 @@
         <v>0.0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="U27" t="n">
         <v>0.0</v>
       </c>
       <c r="V27" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="W27" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="X27" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Z27" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="AA27" t="n">
-        <v>28.0</v>
+        <v>136.0</v>
       </c>
       <c r="AB27" t="n">
-        <v>69.0</v>
+        <v>32.0</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.11</v>
+        <v>0.0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.21</v>
+        <v>0.03</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.21</v>
+        <v>0.03</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.23</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>2536.0</v>
+        <v>2164.0</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D28" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F28" t="s">
         <v>171</v>
@@ -8439,31 +8442,31 @@
         <v>173</v>
       </c>
       <c r="H28" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="I28" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="J28" t="n">
-        <v>31.0</v>
+        <v>16.0</v>
       </c>
       <c r="K28" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="L28" t="e">
-        <v>#N/A</v>
+        <v>8.0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>853.0</v>
       </c>
       <c r="M28" t="n">
-        <v>17.3</v>
+        <v>9.5</v>
       </c>
       <c r="N28" t="n">
         <v>1.0</v>
       </c>
       <c r="O28" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="P28" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q28" t="n">
         <v>1.0</v>
@@ -8475,49 +8478,49 @@
         <v>0.0</v>
       </c>
       <c r="T28" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="U28" t="n">
         <v>0.0</v>
       </c>
       <c r="V28" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="W28" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="X28" t="n">
-        <v>2.6</v>
+        <v>1.0</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="Z28" t="n">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
       <c r="AA28" t="n">
-        <v>126.0</v>
+        <v>28.0</v>
       </c>
       <c r="AB28" t="n">
-        <v>46.0</v>
+        <v>69.0</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.35</v>
+        <v>0.11</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.4</v>
+        <v>0.21</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.4</v>
+        <v>0.21</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.07</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="29">
@@ -8525,7 +8528,7 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>364.0</v>
+        <v>367.0</v>
       </c>
       <c r="C29" t="s">
         <v>110</v>
@@ -8629,7 +8632,7 @@
         <v>26</v>
       </c>
       <c r="B30" t="n">
-        <v>806.0</v>
+        <v>813.0</v>
       </c>
       <c r="C30" t="s">
         <v>84</v>
@@ -8653,16 +8656,16 @@
         <v>233</v>
       </c>
       <c r="J30" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="K30" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="L30" t="e">
         <v>#N/A</v>
       </c>
       <c r="M30" t="n">
-        <v>17.3</v>
+        <v>18.1</v>
       </c>
       <c r="N30" t="n">
         <v>1.0</v>
@@ -8701,13 +8704,13 @@
         <v>2.2</v>
       </c>
       <c r="Z30" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="AA30" t="n">
-        <v>88.0</v>
+        <v>95.0</v>
       </c>
       <c r="AB30" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="AC30" t="n">
         <v>0.06</v>
@@ -8733,7 +8736,7 @@
         <v>79</v>
       </c>
       <c r="B31" t="n">
-        <v>1008.0</v>
+        <v>1016.0</v>
       </c>
       <c r="C31" t="s">
         <v>137</v>
@@ -8757,7 +8760,7 @@
         <v>240</v>
       </c>
       <c r="J31" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="K31" t="n">
         <v>12.0</v>
@@ -8766,7 +8769,7 @@
         <v>#N/A</v>
       </c>
       <c r="M31" t="n">
-        <v>12.0</v>
+        <v>12.2</v>
       </c>
       <c r="N31" t="n">
         <v>1.0</v>
@@ -8802,13 +8805,13 @@
         <v>0.9</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="AA31" t="n">
-        <v>74.0</v>
+        <v>75.0</v>
       </c>
       <c r="AB31" t="n">
         <v>70.0</v>
@@ -8837,7 +8840,7 @@
         <v>46</v>
       </c>
       <c r="B32" t="n">
-        <v>1222.0</v>
+        <v>1231.0</v>
       </c>
       <c r="C32" t="s">
         <v>104</v>
@@ -8861,7 +8864,7 @@
         <v>241</v>
       </c>
       <c r="J32" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="K32" t="n">
         <v>14.0</v>
@@ -8870,7 +8873,7 @@
         <v>#N/A</v>
       </c>
       <c r="M32" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="N32" t="n">
         <v>1.0</v>
@@ -8915,7 +8918,7 @@
         <v>72.0</v>
       </c>
       <c r="AB32" t="n">
-        <v>86.0</v>
+        <v>87.0</v>
       </c>
       <c r="AC32" t="n">
         <v>0.08</v>
@@ -8938,55 +8941,55 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B33" t="n">
-        <v>459.0</v>
+        <v>2139.0</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E33" t="s">
         <v>166</v>
       </c>
       <c r="F33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G33" t="s">
         <v>173</v>
       </c>
       <c r="H33" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="I33" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J33" t="n">
-        <v>25.0</v>
+        <v>16.0</v>
       </c>
       <c r="K33" t="n">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
       <c r="L33" t="e">
         <v>#N/A</v>
       </c>
       <c r="M33" t="n">
-        <v>18.2</v>
+        <v>12.2</v>
       </c>
       <c r="N33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O33" t="n">
         <v>0.0</v>
       </c>
       <c r="P33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R33" t="n">
         <v>0.0</v>
@@ -8995,66 +8998,66 @@
         <v>0.0</v>
       </c>
       <c r="T33" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="U33" t="n">
         <v>0.0</v>
       </c>
       <c r="V33" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="W33" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="X33" t="n">
         <v>0.1</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.0</v>
+        <v>0.3</v>
       </c>
       <c r="Z33" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="AA33" t="n">
-        <v>56.0</v>
+        <v>60.0</v>
       </c>
       <c r="AB33" t="n">
         <v>1.0</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.0</v>
+        <v>0.08</v>
       </c>
       <c r="AD33" t="n">
         <v>0.0</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.0</v>
+        <v>0.08</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.0</v>
+        <v>0.08</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.0</v>
+        <v>0.08</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B34" t="n">
-        <v>506.0</v>
+        <v>463.0</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E34" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F34" t="s">
         <v>171</v>
@@ -9063,22 +9066,22 @@
         <v>173</v>
       </c>
       <c r="H34" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="I34" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="J34" t="n">
-        <v>3.0</v>
+        <v>26.0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>74.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="L34" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M34" t="n">
-        <v>0.8</v>
+        <v>19.2</v>
       </c>
       <c r="N34" t="n">
         <v>0.0</v>
@@ -9099,31 +9102,31 @@
         <v>0.0</v>
       </c>
       <c r="T34" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="U34" t="n">
         <v>0.0</v>
       </c>
       <c r="V34" t="n">
-        <v>0.0</v>
+        <v>1.9</v>
       </c>
       <c r="W34" t="n">
-        <v>0.0</v>
+        <v>1.9</v>
       </c>
       <c r="X34" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA34" t="n">
-        <v>3.0</v>
+        <v>58.0</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC34" t="n">
         <v>0.0</v>
@@ -9141,24 +9144,24 @@
         <v>0.0</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B35" t="n">
-        <v>589.0</v>
+        <v>511.0</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D35" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E35" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F35" t="s">
         <v>171</v>
@@ -9167,31 +9170,31 @@
         <v>173</v>
       </c>
       <c r="H35" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I35" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J35" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="K35" t="n">
         <v>0.0</v>
       </c>
       <c r="L35" t="n">
-        <v>25.0</v>
+        <v>85.0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="N35" t="n">
         <v>0.0</v>
       </c>
       <c r="O35" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P35" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q35" t="n">
         <v>0.0</v>
@@ -9203,66 +9206,66 @@
         <v>0.0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U35" t="n">
         <v>0.0</v>
       </c>
       <c r="V35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X35" t="n">
         <v>0.1</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0.0</v>
       </c>
       <c r="Y35" t="n">
         <v>0.1</v>
       </c>
       <c r="Z35" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA35" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="AB35" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC35" t="n">
         <v>0.0</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.0</v>
+        <v>1.06</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.0</v>
+        <v>1.06</v>
       </c>
       <c r="AF35" t="n">
         <v>0.0</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.0</v>
+        <v>1.06</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.52</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B36" t="n">
-        <v>1173.0</v>
+        <v>594.0</v>
       </c>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D36" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E36" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F36" t="s">
         <v>171</v>
@@ -9271,22 +9274,22 @@
         <v>173</v>
       </c>
       <c r="H36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I36" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J36" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="K36" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L36" t="n">
-        <v>141.0</v>
+        <v>25.0</v>
       </c>
       <c r="M36" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="N36" t="n">
         <v>0.0</v>
@@ -9313,25 +9316,25 @@
         <v>0.0</v>
       </c>
       <c r="V36" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="W36" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X36" t="n">
         <v>0.0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="Z36" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="AA36" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AC36" t="n">
         <v>0.0</v>
@@ -9349,21 +9352,21 @@
         <v>0.0</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.0</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B37" t="n">
-        <v>1270.0</v>
+        <v>1181.0</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="D37" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E37" t="s">
         <v>164</v>
@@ -9375,31 +9378,31 @@
         <v>173</v>
       </c>
       <c r="H37" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="I37" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="J37" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="K37" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="L37" t="e">
-        <v>#N/A</v>
+        <v>1.0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>141.0</v>
       </c>
       <c r="M37" t="n">
-        <v>18.4</v>
+        <v>1.6</v>
       </c>
       <c r="N37" t="n">
         <v>0.0</v>
       </c>
       <c r="O37" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q37" t="n">
         <v>0.0</v>
@@ -9411,66 +9414,66 @@
         <v>0.0</v>
       </c>
       <c r="T37" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="U37" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="X37" t="n">
-        <v>1.3</v>
+        <v>0.0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.4</v>
+        <v>0.0</v>
       </c>
       <c r="Z37" t="n">
-        <v>19.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA37" t="n">
-        <v>83.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB37" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC37" t="n">
         <v>0.0</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.05</v>
+        <v>0.0</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.05</v>
+        <v>0.0</v>
       </c>
       <c r="AF37" t="n">
         <v>0.0</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.05</v>
+        <v>0.0</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.01</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B38" t="n">
-        <v>1305.0</v>
+        <v>1279.0</v>
       </c>
       <c r="C38" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F38" t="s">
         <v>171</v>
@@ -9479,31 +9482,31 @@
         <v>173</v>
       </c>
       <c r="H38" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="I38" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="J38" t="n">
-        <v>1.0</v>
+        <v>20.0</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>14.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="L38" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M38" t="n">
-        <v>0.2</v>
+        <v>18.4</v>
       </c>
       <c r="N38" t="n">
         <v>0.0</v>
       </c>
       <c r="O38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q38" t="n">
         <v>0.0</v>
@@ -9515,10 +9518,10 @@
         <v>0.0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V38" t="n">
         <v>0.1</v>
@@ -9527,54 +9530,54 @@
         <v>0.1</v>
       </c>
       <c r="X38" t="n">
-        <v>0.0</v>
+        <v>1.3</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.1</v>
+        <v>1.4</v>
       </c>
       <c r="Z38" t="n">
-        <v>1.0</v>
+        <v>19.0</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.0</v>
+        <v>83.0</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="AC38" t="n">
         <v>0.0</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.0</v>
+        <v>0.05</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.0</v>
+        <v>0.05</v>
       </c>
       <c r="AF38" t="n">
         <v>0.0</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.0</v>
+        <v>0.05</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.45</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B39" t="n">
-        <v>1309.0</v>
+        <v>1314.0</v>
       </c>
       <c r="C39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D39" t="s">
         <v>149</v>
       </c>
       <c r="E39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F39" t="s">
         <v>171</v>
@@ -9583,22 +9586,22 @@
         <v>173</v>
       </c>
       <c r="H39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I39" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="J39" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K39" t="n">
         <v>0.0</v>
       </c>
       <c r="L39" t="n">
-        <v>2.0</v>
+        <v>14.0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="N39" t="n">
         <v>0.0</v>
@@ -9625,19 +9628,19 @@
         <v>0.0</v>
       </c>
       <c r="V39" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="W39" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X39" t="n">
         <v>0.0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA39" t="n">
         <v>0.0</v>
@@ -9661,21 +9664,21 @@
         <v>0.0</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B40" t="n">
-        <v>1436.0</v>
+        <v>1318.0</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D40" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E40" t="s">
         <v>166</v>
@@ -9687,31 +9690,31 @@
         <v>173</v>
       </c>
       <c r="H40" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="I40" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J40" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="K40" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="L40" t="e">
-        <v>#N/A</v>
+        <v>0.0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2.0</v>
       </c>
       <c r="M40" t="n">
-        <v>11.8</v>
+        <v>0.0</v>
       </c>
       <c r="N40" t="n">
         <v>0.0</v>
       </c>
       <c r="O40" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q40" t="n">
         <v>0.0</v>
@@ -9723,66 +9726,66 @@
         <v>0.0</v>
       </c>
       <c r="T40" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U40" t="n">
         <v>0.0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.9</v>
+        <v>0.0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.9</v>
+        <v>0.0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.8</v>
+        <v>0.0</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.6</v>
+        <v>0.0</v>
       </c>
       <c r="Z40" t="n">
-        <v>26.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA40" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB40" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC40" t="n">
         <v>0.0</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.08</v>
+        <v>0.0</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.08</v>
+        <v>0.0</v>
       </c>
       <c r="AF40" t="n">
         <v>0.0</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.08</v>
+        <v>0.0</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.07</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B41" t="n">
-        <v>1606.0</v>
+        <v>1448.0</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D41" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E41" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F41" t="s">
         <v>171</v>
@@ -9791,31 +9794,31 @@
         <v>173</v>
       </c>
       <c r="H41" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="I41" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J41" t="n">
-        <v>33.0</v>
+        <v>13.0</v>
       </c>
       <c r="K41" t="n">
-        <v>33.0</v>
+        <v>13.0</v>
       </c>
       <c r="L41" t="e">
         <v>#N/A</v>
       </c>
       <c r="M41" t="n">
-        <v>32.5</v>
+        <v>11.8</v>
       </c>
       <c r="N41" t="n">
         <v>0.0</v>
       </c>
       <c r="O41" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P41" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q41" t="n">
         <v>0.0</v>
@@ -9827,66 +9830,66 @@
         <v>0.0</v>
       </c>
       <c r="T41" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="U41" t="n">
         <v>0.0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.0</v>
+        <v>0.9</v>
       </c>
       <c r="W41" t="n">
-        <v>0.0</v>
+        <v>0.9</v>
       </c>
       <c r="X41" t="n">
-        <v>0.0</v>
+        <v>0.8</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.0</v>
+        <v>1.6</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="AA41" t="n">
-        <v>2.0</v>
+        <v>50.0</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC41" t="n">
         <v>0.0</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.0</v>
+        <v>0.08</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.0</v>
+        <v>0.08</v>
       </c>
       <c r="AF41" t="n">
         <v>0.0</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.0</v>
+        <v>0.08</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.0</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>1727.0</v>
+        <v>1621.0</v>
       </c>
       <c r="C42" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="D42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E42" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F42" t="s">
         <v>171</v>
@@ -9895,22 +9898,22 @@
         <v>173</v>
       </c>
       <c r="H42" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="I42" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="J42" t="n">
-        <v>1.0</v>
+        <v>34.0</v>
       </c>
       <c r="K42" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>30.0</v>
+        <v>34.0</v>
+      </c>
+      <c r="L42" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M42" t="n">
-        <v>0.3</v>
+        <v>33.5</v>
       </c>
       <c r="N42" t="n">
         <v>0.0</v>
@@ -9931,7 +9934,7 @@
         <v>0.0</v>
       </c>
       <c r="T42" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="U42" t="n">
         <v>0.0</v>
@@ -9952,7 +9955,7 @@
         <v>0.0</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB42" t="n">
         <v>0.0</v>
@@ -9973,24 +9976,24 @@
         <v>0.0</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.02</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B43" t="n">
-        <v>1927.0</v>
+        <v>1743.0</v>
       </c>
       <c r="C43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F43" t="s">
         <v>171</v>
@@ -9999,22 +10002,22 @@
         <v>173</v>
       </c>
       <c r="H43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I43" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="J43" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="L43" t="n">
-        <v>315.0</v>
+        <v>30.0</v>
       </c>
       <c r="M43" t="n">
-        <v>3.5</v>
+        <v>0.3</v>
       </c>
       <c r="N43" t="n">
         <v>0.0</v>
@@ -10077,24 +10080,24 @@
         <v>0.0</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B44" t="n">
-        <v>2074.0</v>
+        <v>1945.0</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="E44" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F44" t="s">
         <v>171</v>
@@ -10103,22 +10106,22 @@
         <v>173</v>
       </c>
       <c r="H44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I44" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="J44" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="L44" t="n">
-        <v>4.0</v>
+        <v>315.0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0</v>
+        <v>3.5</v>
       </c>
       <c r="N44" t="n">
         <v>0.0</v>
@@ -10157,13 +10160,13 @@
         <v>0.0</v>
       </c>
       <c r="Z44" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA44" t="n">
         <v>0.0</v>
       </c>
       <c r="AB44" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC44" t="n">
         <v>0.0</v>
@@ -10186,31 +10189,31 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B45" t="n">
-        <v>64.0</v>
+        <v>2095.0</v>
       </c>
       <c r="C45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D45" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E45" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G45" t="s">
         <v>173</v>
       </c>
       <c r="H45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I45" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="J45" t="n">
         <v>1.0</v>
@@ -10219,10 +10222,10 @@
         <v>0.0</v>
       </c>
       <c r="L45" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="N45" t="n">
         <v>0.0</v>
@@ -10261,13 +10264,13 @@
         <v>0.0</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA45" t="n">
         <v>0.0</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC45" t="n">
         <v>0.0</v>
@@ -10290,19 +10293,19 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B46" t="n">
-        <v>77.0</v>
+        <v>65.0</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D46" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="E46" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F46" t="s">
         <v>172</v>
@@ -10311,22 +10314,22 @@
         <v>173</v>
       </c>
       <c r="H46" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="I46" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="J46" t="n">
-        <v>26.0</v>
+        <v>1.0</v>
       </c>
       <c r="K46" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="L46" t="e">
-        <v>#N/A</v>
+        <v>0.0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>6.0</v>
       </c>
       <c r="M46" t="n">
-        <v>26.0</v>
+        <v>0.1</v>
       </c>
       <c r="N46" t="n">
         <v>0.0</v>
@@ -10347,7 +10350,7 @@
         <v>0.0</v>
       </c>
       <c r="T46" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U46" t="n">
         <v>0.0</v>
@@ -10368,7 +10371,7 @@
         <v>0.0</v>
       </c>
       <c r="AA46" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB46" t="n">
         <v>0.0</v>
@@ -10394,19 +10397,19 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B47" t="n">
-        <v>183.0</v>
+        <v>78.0</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D47" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="E47" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F47" t="s">
         <v>172</v>
@@ -10415,22 +10418,22 @@
         <v>173</v>
       </c>
       <c r="H47" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="I47" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="J47" t="n">
-        <v>1.0</v>
+        <v>27.0</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
+      </c>
+      <c r="L47" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M47" t="n">
-        <v>0.3</v>
+        <v>27.0</v>
       </c>
       <c r="N47" t="n">
         <v>0.0</v>
@@ -10451,7 +10454,7 @@
         <v>0.0</v>
       </c>
       <c r="T47" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U47" t="n">
         <v>0.0</v>
@@ -10472,7 +10475,7 @@
         <v>0.0</v>
       </c>
       <c r="AA47" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="AB47" t="n">
         <v>0.0</v>
@@ -10498,19 +10501,19 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B48" t="n">
-        <v>243.0</v>
+        <v>186.0</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D48" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E48" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F48" t="s">
         <v>172</v>
@@ -10519,10 +10522,10 @@
         <v>173</v>
       </c>
       <c r="H48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I48" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="J48" t="n">
         <v>1.0</v>
@@ -10531,10 +10534,10 @@
         <v>0.0</v>
       </c>
       <c r="L48" t="n">
-        <v>8.0</v>
+        <v>26.0</v>
       </c>
       <c r="M48" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N48" t="n">
         <v>0.0</v>
@@ -10576,10 +10579,10 @@
         <v>0.0</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB48" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC48" t="n">
         <v>0.0</v>
@@ -10602,19 +10605,19 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B49" t="n">
-        <v>537.0</v>
+        <v>246.0</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D49" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E49" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F49" t="s">
         <v>172</v>
@@ -10623,22 +10626,22 @@
         <v>173</v>
       </c>
       <c r="H49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I49" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J49" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="K49" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="L49" t="n">
-        <v>89.0</v>
+        <v>8.0</v>
       </c>
       <c r="M49" t="n">
-        <v>1.0</v>
+        <v>0.1</v>
       </c>
       <c r="N49" t="n">
         <v>0.0</v>
@@ -10665,25 +10668,25 @@
         <v>0.0</v>
       </c>
       <c r="V49" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="W49" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="X49" t="n">
         <v>0.0</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="Z49" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA49" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB49" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC49" t="n">
         <v>0.0</v>
@@ -10701,24 +10704,24 @@
         <v>0.0</v>
       </c>
       <c r="AH49" t="n">
-        <v>0.14</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B50" t="n">
-        <v>624.0</v>
+        <v>542.0</v>
       </c>
       <c r="C50" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="D50" t="s">
         <v>149</v>
       </c>
       <c r="E50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F50" t="s">
         <v>172</v>
@@ -10727,67 +10730,67 @@
         <v>173</v>
       </c>
       <c r="H50" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="I50" t="s">
-        <v>63</v>
+        <v>246</v>
       </c>
       <c r="J50" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="K50" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L50" t="n">
-        <v>9.0</v>
+        <v>89.0</v>
       </c>
       <c r="M50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V50" t="n">
         <v>0.1</v>
       </c>
-      <c r="N50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U50" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V50" t="n">
-        <v>0.0</v>
-      </c>
       <c r="W50" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X50" t="n">
         <v>0.0</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="AA50" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="AB50" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="AC50" t="n">
         <v>0.0</v>
@@ -10805,21 +10808,21 @@
         <v>0.0</v>
       </c>
       <c r="AH50" t="n">
-        <v>0.0</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B51" t="n">
-        <v>720.0</v>
+        <v>630.0</v>
       </c>
       <c r="C51" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="D51" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E51" t="s">
         <v>165</v>
@@ -10831,22 +10834,22 @@
         <v>173</v>
       </c>
       <c r="H51" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="I51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J51" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K51" t="n">
         <v>0.0</v>
       </c>
       <c r="L51" t="n">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="M51" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="N51" t="n">
         <v>0.0</v>
@@ -10867,7 +10870,7 @@
         <v>0.0</v>
       </c>
       <c r="T51" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U51" t="n">
         <v>0.0</v>
@@ -10888,10 +10891,10 @@
         <v>0.0</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AC51" t="n">
         <v>0.0</v>
@@ -10914,19 +10917,19 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B52" t="n">
-        <v>976.0</v>
+        <v>727.0</v>
       </c>
       <c r="C52" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F52" t="s">
         <v>172</v>
@@ -10935,31 +10938,31 @@
         <v>173</v>
       </c>
       <c r="H52" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="I52" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="J52" t="n">
-        <v>31.0</v>
+        <v>1.0</v>
       </c>
       <c r="K52" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="L52" t="e">
-        <v>#N/A</v>
+        <v>0.0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>14.0</v>
       </c>
       <c r="M52" t="n">
-        <v>18.8</v>
+        <v>0.2</v>
       </c>
       <c r="N52" t="n">
         <v>0.0</v>
       </c>
       <c r="O52" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P52" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q52" t="n">
         <v>0.0</v>
@@ -10971,66 +10974,66 @@
         <v>0.0</v>
       </c>
       <c r="T52" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="U52" t="n">
         <v>0.0</v>
       </c>
       <c r="V52" t="n">
-        <v>0.7</v>
+        <v>0.0</v>
       </c>
       <c r="W52" t="n">
-        <v>0.7</v>
+        <v>0.0</v>
       </c>
       <c r="X52" t="n">
-        <v>1.3</v>
+        <v>0.0</v>
       </c>
       <c r="Y52" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z52" t="n">
-        <v>41.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA52" t="n">
-        <v>97.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB52" t="n">
-        <v>99.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC52" t="n">
         <v>0.0</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.05</v>
+        <v>0.0</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.05</v>
+        <v>0.0</v>
       </c>
       <c r="AF52" t="n">
         <v>0.0</v>
       </c>
       <c r="AG52" t="n">
-        <v>0.05</v>
+        <v>0.0</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.04</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="B53" t="n">
-        <v>994.0</v>
+        <v>983.0</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="D53" t="s">
         <v>149</v>
       </c>
       <c r="E53" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F53" t="s">
         <v>172</v>
@@ -11039,31 +11042,31 @@
         <v>173</v>
       </c>
       <c r="H53" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="I53" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="J53" t="n">
-        <v>1.0</v>
+        <v>32.0</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="L53" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M53" t="n">
-        <v>0.0</v>
+        <v>19.8</v>
       </c>
       <c r="N53" t="n">
         <v>0.0</v>
       </c>
       <c r="O53" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P53" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q53" t="n">
         <v>0.0</v>
@@ -11075,66 +11078,66 @@
         <v>0.0</v>
       </c>
       <c r="T53" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="U53" t="n">
         <v>0.0</v>
       </c>
       <c r="V53" t="n">
-        <v>0.0</v>
+        <v>0.8</v>
       </c>
       <c r="W53" t="n">
-        <v>0.0</v>
+        <v>0.8</v>
       </c>
       <c r="X53" t="n">
-        <v>0.0</v>
+        <v>1.3</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.0</v>
+        <v>2.1</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.0</v>
+        <v>44.0</v>
       </c>
       <c r="AA53" t="n">
-        <v>1.0</v>
+        <v>100.0</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.0</v>
+        <v>105.0</v>
       </c>
       <c r="AC53" t="n">
         <v>0.0</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.0</v>
+        <v>0.05</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.0</v>
+        <v>0.05</v>
       </c>
       <c r="AF53" t="n">
         <v>0.0</v>
       </c>
       <c r="AG53" t="n">
-        <v>0.0</v>
+        <v>0.05</v>
       </c>
       <c r="AH53" t="n">
-        <v>0.0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B54" t="n">
-        <v>1302.0</v>
+        <v>1002.0</v>
       </c>
       <c r="C54" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D54" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E54" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F54" t="s">
         <v>172</v>
@@ -11143,22 +11146,22 @@
         <v>173</v>
       </c>
       <c r="H54" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I54" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="J54" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="K54" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="L54" t="n">
-        <v>900.0</v>
+        <v>1.0</v>
       </c>
       <c r="M54" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="N54" t="n">
         <v>0.0</v>
@@ -11226,19 +11229,19 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="B55" t="n">
-        <v>1336.0</v>
+        <v>1311.0</v>
       </c>
       <c r="C55" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="D55" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="E55" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F55" t="s">
         <v>172</v>
@@ -11247,22 +11250,22 @@
         <v>173</v>
       </c>
       <c r="H55" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="I55" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J55" t="n">
-        <v>22.0</v>
+        <v>10.0</v>
       </c>
       <c r="K55" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="L55" t="e">
-        <v>#N/A</v>
+        <v>10.0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>900.0</v>
       </c>
       <c r="M55" t="n">
-        <v>17.5</v>
+        <v>10.0</v>
       </c>
       <c r="N55" t="n">
         <v>0.0</v>
@@ -11283,31 +11286,31 @@
         <v>0.0</v>
       </c>
       <c r="T55" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="U55" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V55" t="n">
-        <v>0.7</v>
+        <v>0.0</v>
       </c>
       <c r="W55" t="n">
-        <v>0.7</v>
+        <v>0.0</v>
       </c>
       <c r="X55" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="Y55" t="n">
-        <v>1.1</v>
+        <v>0.0</v>
       </c>
       <c r="Z55" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA55" t="n">
-        <v>118.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB55" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC55" t="n">
         <v>0.0</v>
@@ -11325,21 +11328,21 @@
         <v>0.0</v>
       </c>
       <c r="AH55" t="n">
-        <v>0.04</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B56" t="n">
-        <v>1627.0</v>
+        <v>1345.0</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D56" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E56" t="s">
         <v>166</v>
@@ -11351,22 +11354,22 @@
         <v>173</v>
       </c>
       <c r="H56" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="I56" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="J56" t="n">
-        <v>10.0</v>
+        <v>22.0</v>
       </c>
       <c r="K56" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>781.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="L56" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M56" t="n">
-        <v>8.7</v>
+        <v>17.5</v>
       </c>
       <c r="N56" t="n">
         <v>0.0</v>
@@ -11387,31 +11390,31 @@
         <v>0.0</v>
       </c>
       <c r="T56" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="U56" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V56" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="W56" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="X56" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="Z56" t="n">
-        <v>8.0</v>
+        <v>24.0</v>
       </c>
       <c r="AA56" t="n">
-        <v>34.0</v>
+        <v>118.0</v>
       </c>
       <c r="AB56" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="AC56" t="n">
         <v>0.0</v>
@@ -11429,24 +11432,24 @@
         <v>0.0</v>
       </c>
       <c r="AH56" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B57" t="n">
-        <v>1667.0</v>
+        <v>1643.0</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="D57" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E57" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F57" t="s">
         <v>172</v>
@@ -11455,22 +11458,22 @@
         <v>173</v>
       </c>
       <c r="H57" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="I57" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J57" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="K57" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="L57" t="n">
-        <v>4.0</v>
+        <v>781.0</v>
       </c>
       <c r="M57" t="n">
-        <v>0.0</v>
+        <v>8.7</v>
       </c>
       <c r="N57" t="n">
         <v>0.0</v>
@@ -11491,31 +11494,31 @@
         <v>0.0</v>
       </c>
       <c r="T57" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U57" t="n">
         <v>0.0</v>
       </c>
       <c r="V57" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="W57" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="X57" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.0</v>
+        <v>0.6</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA57" t="n">
-        <v>1.0</v>
+        <v>34.0</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC57" t="n">
         <v>0.0</v>
@@ -11533,24 +11536,24 @@
         <v>0.0</v>
       </c>
       <c r="AH57" t="n">
-        <v>0.0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B58" t="n">
-        <v>2118.0</v>
+        <v>1683.0</v>
       </c>
       <c r="C58" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="D58" t="s">
         <v>149</v>
       </c>
       <c r="E58" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F58" t="s">
         <v>172</v>
@@ -11559,22 +11562,22 @@
         <v>173</v>
       </c>
       <c r="H58" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="I58" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="J58" t="n">
-        <v>15.0</v>
+        <v>3.0</v>
       </c>
       <c r="K58" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="L58" t="e">
-        <v>#N/A</v>
+        <v>0.0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>4.0</v>
       </c>
       <c r="M58" t="n">
-        <v>11.2</v>
+        <v>0.0</v>
       </c>
       <c r="N58" t="n">
         <v>0.0</v>
@@ -11595,31 +11598,31 @@
         <v>0.0</v>
       </c>
       <c r="T58" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U58" t="n">
         <v>0.0</v>
       </c>
       <c r="V58" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="W58" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="X58" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="Z58" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA58" t="n">
-        <v>57.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB58" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC58" t="n">
         <v>0.0</v>
@@ -11637,7 +11640,7 @@
         <v>0.0</v>
       </c>
       <c r="AH58" t="n">
-        <v>0.01</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="59">
@@ -11645,7 +11648,7 @@
         <v>82</v>
       </c>
       <c r="B59" t="n">
-        <v>2586.0</v>
+        <v>2610.0</v>
       </c>
       <c r="C59" t="s">
         <v>140</v>
